--- a/OperadoraNominas/bin/Debug/Archivos/timbrado_idn_s.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/timbrado_idn_s.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Generales" sheetId="2" r:id="rId1"/>
@@ -282,7 +282,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="110">
   <si>
     <t>No. Empleado</t>
   </si>
@@ -609,6 +609,9 @@
   </si>
   <si>
     <t>Reembolso infonavit</t>
+  </si>
+  <si>
+    <t>+W72-X72</t>
   </si>
 </sst>
 </file>
@@ -996,16 +999,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1014,10 +1017,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3088,90 +3091,90 @@
       <c r="AV1" s="8"/>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="36" t="s">
+      <c r="D2" s="37"/>
+      <c r="E2" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38" t="s">
+      <c r="F2" s="39"/>
+      <c r="G2" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="39"/>
-      <c r="I2" s="36" t="s">
+      <c r="H2" s="37"/>
+      <c r="I2" s="38" t="s">
         <v>44</v>
       </c>
       <c r="J2" s="40"/>
       <c r="K2" s="40"/>
       <c r="L2" s="40"/>
       <c r="M2" s="40"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="38" t="s">
+      <c r="N2" s="39"/>
+      <c r="O2" s="36" t="s">
         <v>45</v>
       </c>
       <c r="P2" s="41"/>
       <c r="Q2" s="41"/>
       <c r="R2" s="41"/>
       <c r="S2" s="41"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="36" t="s">
+      <c r="T2" s="37"/>
+      <c r="U2" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="V2" s="37"/>
-      <c r="W2" s="38" t="s">
+      <c r="V2" s="39"/>
+      <c r="W2" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="36" t="s">
+      <c r="X2" s="37"/>
+      <c r="Y2" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="38" t="s">
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="AB2" s="39"/>
-      <c r="AC2" s="36" t="s">
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="38" t="s">
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="AF2" s="39"/>
-      <c r="AG2" s="36" t="s">
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="38" t="s">
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="AJ2" s="39"/>
-      <c r="AK2" s="36" t="s">
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="38" t="s">
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="AN2" s="39"/>
-      <c r="AO2" s="36" t="s">
+      <c r="AN2" s="37"/>
+      <c r="AO2" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="AP2" s="37"/>
-      <c r="AQ2" s="38" t="s">
+      <c r="AP2" s="39"/>
+      <c r="AQ2" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="AR2" s="39"/>
-      <c r="AS2" s="36" t="s">
+      <c r="AR2" s="37"/>
+      <c r="AS2" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="AT2" s="37"/>
-      <c r="AU2" s="38" t="s">
+      <c r="AT2" s="39"/>
+      <c r="AU2" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="AV2" s="39"/>
+      <c r="AV2" s="37"/>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -6813,16 +6816,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="O2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="AO2:AP2"/>
     <mergeCell ref="AQ2:AR2"/>
     <mergeCell ref="AS2:AT2"/>
@@ -6832,6 +6825,16 @@
     <mergeCell ref="AI2:AJ2"/>
     <mergeCell ref="AK2:AL2"/>
     <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="O2:T2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <legacyDrawing r:id="rId1"/>
@@ -6843,11 +6846,11 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:Y141"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C75" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="P72" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD91"/>
+      <selection pane="bottomRight" activeCell="Y72" sqref="Y72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6930,57 +6933,57 @@
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="38" t="s">
         <v>88</v>
       </c>
       <c r="I2" s="40"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="43" t="s">
+      <c r="J2" s="39"/>
+      <c r="K2" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="L2" s="42" t="s">
+      <c r="L2" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="M2" s="43" t="s">
+      <c r="M2" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="N2" s="42" t="s">
+      <c r="N2" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="43" t="s">
+      <c r="O2" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="P2" s="42" t="s">
+      <c r="P2" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="Q2" s="43" t="s">
+      <c r="Q2" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="R2" s="42" t="s">
+      <c r="R2" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="S2" s="43" t="s">
+      <c r="S2" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="T2" s="42" t="s">
+      <c r="T2" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="U2" s="43" t="s">
+      <c r="U2" s="42" t="s">
         <v>99</v>
       </c>
     </row>
@@ -8232,7 +8235,9 @@
       <c r="T72" s="20"/>
       <c r="U72" s="20"/>
       <c r="W72" s="23"/>
-      <c r="Y72" s="23"/>
+      <c r="Y72" s="23" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="73" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="19"/>
@@ -8848,16 +8853,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C2"/>
-    <mergeCell ref="D2"/>
-    <mergeCell ref="E2"/>
-    <mergeCell ref="F2"/>
-    <mergeCell ref="G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2"/>
-    <mergeCell ref="L2"/>
-    <mergeCell ref="M2"/>
-    <mergeCell ref="N2"/>
     <mergeCell ref="T2"/>
     <mergeCell ref="U2"/>
     <mergeCell ref="O2"/>
@@ -8865,6 +8860,16 @@
     <mergeCell ref="Q2"/>
     <mergeCell ref="R2"/>
     <mergeCell ref="S2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2"/>
+    <mergeCell ref="L2"/>
+    <mergeCell ref="M2"/>
+    <mergeCell ref="N2"/>
+    <mergeCell ref="C2"/>
+    <mergeCell ref="D2"/>
+    <mergeCell ref="E2"/>
+    <mergeCell ref="F2"/>
+    <mergeCell ref="G2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <legacyDrawing r:id="rId1"/>
@@ -8876,11 +8881,11 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:K107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C75" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C69" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H85" sqref="H85"/>
+      <selection pane="bottomRight" activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8901,10 +8906,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="39"/>
+      <c r="D2" s="37"/>
       <c r="E2" s="32" t="s">
         <v>108</v>
       </c>

--- a/OperadoraNominas/bin/Debug/Archivos/timbrado_idn_s.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/timbrado_idn_s.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665"/>
   </bookViews>
   <sheets>
     <sheet name="Generales" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <author>Omar</author>
   </authors>
   <commentList>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -101,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -126,7 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0">
+    <comment ref="V1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -144,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0">
+    <comment ref="X1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -166,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0">
+    <comment ref="Z1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -282,7 +282,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="109">
   <si>
     <t>No. Empleado</t>
   </si>
@@ -600,9 +600,6 @@
   </si>
   <si>
     <t>SUELDO</t>
-  </si>
-  <si>
-    <t>CE CO</t>
   </si>
   <si>
     <t>276/009</t>
@@ -999,16 +996,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1017,10 +1014,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1327,140 +1324,135 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:AD90"/>
+  <dimension ref="A1:AC90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AB2" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D37" sqref="D37"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="18" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.7109375" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" customWidth="1"/>
-    <col min="14" max="15" width="9.7109375" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" customWidth="1"/>
-    <col min="18" max="18" width="8.7109375" customWidth="1"/>
-    <col min="19" max="19" width="6.7109375" customWidth="1"/>
-    <col min="20" max="20" width="15.7109375" customWidth="1"/>
-    <col min="21" max="21" width="17.7109375" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" customWidth="1"/>
-    <col min="23" max="26" width="9.7109375" customWidth="1"/>
-    <col min="27" max="27" width="5.7109375" customWidth="1"/>
-    <col min="28" max="28" width="19.7109375" customWidth="1"/>
-    <col min="29" max="29" width="16.7109375" customWidth="1"/>
-    <col min="30" max="30" width="15.7109375" customWidth="1"/>
-    <col min="31" max="32" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+    <col min="13" max="14" width="9.7109375" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" customWidth="1"/>
+    <col min="16" max="16" width="5.7109375" customWidth="1"/>
+    <col min="17" max="17" width="8.7109375" customWidth="1"/>
+    <col min="18" max="18" width="6.7109375" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" customWidth="1"/>
+    <col min="20" max="20" width="17.7109375" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" customWidth="1"/>
+    <col min="22" max="25" width="9.7109375" customWidth="1"/>
+    <col min="26" max="26" width="5.7109375" customWidth="1"/>
+    <col min="27" max="27" width="19.7109375" customWidth="1"/>
+    <col min="28" max="28" width="16.7109375" customWidth="1"/>
+    <col min="29" max="29" width="15.7109375" customWidth="1"/>
+    <col min="30" max="31" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="J1" s="35" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="M1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="34"/>
-      <c r="P1" s="1" t="s">
+      <c r="N1" s="34"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="P1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="34"/>
-      <c r="S1" s="33" t="s">
+      <c r="Q1" s="34"/>
+      <c r="R1" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="U1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="33" t="s">
+      <c r="V1" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="33" t="s">
+      <c r="W1" s="34"/>
+      <c r="X1" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="33" t="s">
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="1" t="s">
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="G2" s="20"/>
       <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="K2" s="19"/>
       <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
+      <c r="T2" s="19"/>
       <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="AA2" s="19"/>
-    </row>
-    <row r="3" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z2" s="19"/>
+    </row>
+    <row r="3" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -1490,1480 +1482,1393 @@
       <c r="AA3" s="19"/>
       <c r="AB3" s="19"/>
       <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-    </row>
-    <row r="4" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
+      <c r="G4" s="20"/>
       <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="K4" s="19"/>
       <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
+      <c r="T4" s="19"/>
       <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="AA4" s="19"/>
-    </row>
-    <row r="5" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z4" s="19"/>
+    </row>
+    <row r="5" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
+      <c r="G5" s="20"/>
       <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="K5" s="19"/>
       <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
+      <c r="T5" s="19"/>
       <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="AA5" s="19"/>
-    </row>
-    <row r="6" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z5" s="19"/>
+    </row>
+    <row r="6" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
+      <c r="G6" s="20"/>
       <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="K6" s="19"/>
       <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
+      <c r="T6" s="19"/>
       <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="AA6" s="19"/>
-    </row>
-    <row r="7" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z6" s="19"/>
+    </row>
+    <row r="7" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
+      <c r="G7" s="20"/>
       <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="K7" s="19"/>
       <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
+      <c r="T7" s="19"/>
       <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="AA7" s="19"/>
-    </row>
-    <row r="8" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z7" s="19"/>
+    </row>
+    <row r="8" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="K8" s="19"/>
       <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
+      <c r="T8" s="19"/>
       <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
-      <c r="AA8" s="19"/>
-    </row>
-    <row r="9" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z8" s="19"/>
+    </row>
+    <row r="9" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="K9" s="19"/>
       <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
+      <c r="T9" s="19"/>
       <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="AA9" s="19"/>
-    </row>
-    <row r="10" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z9" s="19"/>
+    </row>
+    <row r="10" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="K10" s="19"/>
       <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
+      <c r="T10" s="19"/>
       <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="AA10" s="19"/>
-    </row>
-    <row r="11" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z10" s="19"/>
+    </row>
+    <row r="11" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
+      <c r="G11" s="20"/>
       <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="K11" s="19"/>
       <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
+      <c r="T11" s="19"/>
       <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="AA11" s="19"/>
-    </row>
-    <row r="12" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z11" s="19"/>
+    </row>
+    <row r="12" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
+      <c r="G12" s="20"/>
       <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="K12" s="19"/>
       <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
+      <c r="T12" s="19"/>
       <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="AA12" s="19"/>
-    </row>
-    <row r="13" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z12" s="19"/>
+    </row>
+    <row r="13" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
+      <c r="G13" s="20"/>
       <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="K13" s="19"/>
       <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
+      <c r="T13" s="19"/>
       <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="AA13" s="19"/>
-    </row>
-    <row r="14" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z13" s="19"/>
+    </row>
+    <row r="14" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
+      <c r="G14" s="20"/>
       <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="K14" s="19"/>
       <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
+      <c r="T14" s="19"/>
       <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
-      <c r="AA14" s="19"/>
-    </row>
-    <row r="15" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z14" s="19"/>
+    </row>
+    <row r="15" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
+      <c r="G15" s="20"/>
       <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="K15" s="19"/>
       <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
+      <c r="T15" s="19"/>
       <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
-      <c r="AA15" s="19"/>
-    </row>
-    <row r="16" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z15" s="19"/>
+    </row>
+    <row r="16" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
+      <c r="G16" s="20"/>
       <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="K16" s="19"/>
       <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
+      <c r="T16" s="19"/>
       <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
-      <c r="AA16" s="19"/>
-    </row>
-    <row r="17" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z16" s="19"/>
+    </row>
+    <row r="17" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
+      <c r="G17" s="20"/>
       <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="K17" s="19"/>
       <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
+      <c r="T17" s="19"/>
       <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
-      <c r="AA17" s="19"/>
-    </row>
-    <row r="18" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z17" s="19"/>
+    </row>
+    <row r="18" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
+      <c r="G18" s="20"/>
       <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="K18" s="19"/>
       <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
+      <c r="T18" s="19"/>
       <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="AA18" s="19"/>
-    </row>
-    <row r="19" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z18" s="19"/>
+    </row>
+    <row r="19" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
+      <c r="G19" s="20"/>
       <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="K19" s="19"/>
       <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
+      <c r="T19" s="19"/>
       <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
-      <c r="AA19" s="19"/>
-    </row>
-    <row r="20" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z19" s="19"/>
+    </row>
+    <row r="20" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
+      <c r="G20" s="20"/>
       <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="K20" s="19"/>
       <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
+      <c r="T20" s="19"/>
       <c r="U20" s="19"/>
-      <c r="V20" s="19"/>
-      <c r="AA20" s="19"/>
-    </row>
-    <row r="21" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z20" s="19"/>
+    </row>
+    <row r="21" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
+      <c r="G21" s="20"/>
       <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="K21" s="19"/>
       <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
+      <c r="T21" s="19"/>
       <c r="U21" s="19"/>
-      <c r="V21" s="19"/>
-      <c r="AA21" s="19"/>
-    </row>
-    <row r="22" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z21" s="19"/>
+    </row>
+    <row r="22" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
+      <c r="G22" s="20"/>
       <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="K22" s="19"/>
       <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
+      <c r="T22" s="19"/>
       <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
-      <c r="AA22" s="19"/>
-    </row>
-    <row r="23" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z22" s="19"/>
+    </row>
+    <row r="23" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
+      <c r="G23" s="20"/>
       <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="K23" s="19"/>
       <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
+      <c r="T23" s="19"/>
       <c r="U23" s="19"/>
-      <c r="V23" s="19"/>
-      <c r="AA23" s="19"/>
-    </row>
-    <row r="24" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z23" s="19"/>
+    </row>
+    <row r="24" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
+      <c r="G24" s="20"/>
       <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="K24" s="19"/>
       <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
+      <c r="T24" s="19"/>
       <c r="U24" s="19"/>
-      <c r="V24" s="19"/>
-      <c r="AA24" s="19"/>
-    </row>
-    <row r="25" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z24" s="19"/>
+    </row>
+    <row r="25" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
+      <c r="G25" s="20"/>
       <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="K25" s="19"/>
       <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
+      <c r="T25" s="19"/>
       <c r="U25" s="19"/>
-      <c r="V25" s="19"/>
-      <c r="AA25" s="19"/>
-    </row>
-    <row r="26" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z25" s="19"/>
+    </row>
+    <row r="26" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
+      <c r="G26" s="20"/>
       <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="K26" s="19"/>
       <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
+      <c r="T26" s="19"/>
       <c r="U26" s="19"/>
-      <c r="V26" s="19"/>
-      <c r="AA26" s="19"/>
-    </row>
-    <row r="27" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z26" s="19"/>
+    </row>
+    <row r="27" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
+      <c r="G27" s="20"/>
       <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="K27" s="19"/>
       <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
+      <c r="T27" s="19"/>
       <c r="U27" s="19"/>
-      <c r="V27" s="19"/>
-      <c r="AA27" s="19"/>
-    </row>
-    <row r="28" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z27" s="19"/>
+    </row>
+    <row r="28" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
+      <c r="G28" s="20"/>
       <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="K28" s="19"/>
       <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
+      <c r="T28" s="19"/>
       <c r="U28" s="19"/>
-      <c r="V28" s="19"/>
-      <c r="AA28" s="19"/>
-    </row>
-    <row r="29" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z28" s="19"/>
+    </row>
+    <row r="29" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="19"/>
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
+      <c r="G29" s="20"/>
       <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="K29" s="19"/>
       <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
+      <c r="T29" s="19"/>
       <c r="U29" s="19"/>
-      <c r="V29" s="19"/>
-      <c r="AA29" s="19"/>
-    </row>
-    <row r="30" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z29" s="19"/>
+    </row>
+    <row r="30" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="19"/>
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
+      <c r="G30" s="20"/>
       <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="K30" s="19"/>
       <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
+      <c r="T30" s="19"/>
       <c r="U30" s="19"/>
-      <c r="V30" s="19"/>
-      <c r="AA30" s="19"/>
-    </row>
-    <row r="31" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z30" s="19"/>
+    </row>
+    <row r="31" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="19"/>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
+      <c r="G31" s="20"/>
       <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="K31" s="19"/>
       <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
+      <c r="T31" s="19"/>
       <c r="U31" s="19"/>
-      <c r="V31" s="19"/>
-      <c r="AA31" s="19"/>
-    </row>
-    <row r="32" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z31" s="19"/>
+    </row>
+    <row r="32" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="19"/>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
+      <c r="G32" s="20"/>
       <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="K32" s="19"/>
       <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
+      <c r="T32" s="19"/>
       <c r="U32" s="19"/>
-      <c r="V32" s="19"/>
-      <c r="AA32" s="19"/>
-    </row>
-    <row r="33" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z32" s="19"/>
+    </row>
+    <row r="33" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="19"/>
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
       <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
+      <c r="G33" s="20"/>
       <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="K33" s="19"/>
       <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
+      <c r="T33" s="19"/>
       <c r="U33" s="19"/>
-      <c r="V33" s="19"/>
-      <c r="AA33" s="19"/>
-    </row>
-    <row r="34" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z33" s="19"/>
+    </row>
+    <row r="34" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="19"/>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
+      <c r="G34" s="20"/>
       <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="K34" s="19"/>
       <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
+      <c r="T34" s="19"/>
       <c r="U34" s="19"/>
-      <c r="V34" s="19"/>
-      <c r="AA34" s="19"/>
-    </row>
-    <row r="35" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z34" s="19"/>
+    </row>
+    <row r="35" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="19"/>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
+      <c r="G35" s="20"/>
       <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="K35" s="19"/>
       <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
+      <c r="T35" s="19"/>
       <c r="U35" s="19"/>
-      <c r="V35" s="19"/>
-      <c r="AA35" s="19"/>
-    </row>
-    <row r="36" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z35" s="19"/>
+    </row>
+    <row r="36" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="19"/>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
+      <c r="G36" s="20"/>
       <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="K36" s="19"/>
       <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
+      <c r="T36" s="19"/>
       <c r="U36" s="19"/>
-      <c r="V36" s="19"/>
-      <c r="AA36" s="19"/>
-    </row>
-    <row r="37" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z36" s="19"/>
+    </row>
+    <row r="37" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="19"/>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
+      <c r="G37" s="20"/>
       <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="K37" s="19"/>
       <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
+      <c r="T37" s="19"/>
       <c r="U37" s="19"/>
-      <c r="V37" s="19"/>
-      <c r="AA37" s="19"/>
-    </row>
-    <row r="38" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z37" s="19"/>
+    </row>
+    <row r="38" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="19"/>
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
       <c r="E38" s="19"/>
       <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
+      <c r="G38" s="20"/>
       <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="K38" s="19"/>
       <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
+      <c r="T38" s="19"/>
       <c r="U38" s="19"/>
-      <c r="V38" s="19"/>
-      <c r="AA38" s="19"/>
-    </row>
-    <row r="39" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z38" s="19"/>
+    </row>
+    <row r="39" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="19"/>
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
       <c r="D39" s="19"/>
       <c r="E39" s="19"/>
       <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
+      <c r="G39" s="20"/>
       <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="K39" s="19"/>
       <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
+      <c r="T39" s="19"/>
       <c r="U39" s="19"/>
-      <c r="V39" s="19"/>
-      <c r="AA39" s="19"/>
-    </row>
-    <row r="40" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z39" s="19"/>
+    </row>
+    <row r="40" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="19"/>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
       <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
+      <c r="G40" s="20"/>
       <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="K40" s="19"/>
       <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
+      <c r="T40" s="19"/>
       <c r="U40" s="19"/>
-      <c r="V40" s="19"/>
-      <c r="AA40" s="19"/>
-    </row>
-    <row r="41" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z40" s="19"/>
+    </row>
+    <row r="41" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="19"/>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
       <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
+      <c r="G41" s="20"/>
       <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="K41" s="19"/>
       <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
+      <c r="T41" s="19"/>
       <c r="U41" s="19"/>
-      <c r="V41" s="19"/>
-      <c r="AA41" s="19"/>
-    </row>
-    <row r="42" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z41" s="19"/>
+    </row>
+    <row r="42" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="19"/>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
       <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
+      <c r="G42" s="20"/>
       <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="K42" s="19"/>
       <c r="L42" s="19"/>
-      <c r="M42" s="19"/>
+      <c r="T42" s="19"/>
       <c r="U42" s="19"/>
-      <c r="V42" s="19"/>
-      <c r="AA42" s="19"/>
-    </row>
-    <row r="43" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z42" s="19"/>
+    </row>
+    <row r="43" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="19"/>
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
       <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
+      <c r="G43" s="20"/>
       <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="K43" s="19"/>
       <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
+      <c r="T43" s="19"/>
       <c r="U43" s="19"/>
-      <c r="V43" s="19"/>
-      <c r="AA43" s="19"/>
-    </row>
-    <row r="44" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z43" s="19"/>
+    </row>
+    <row r="44" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="19"/>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
       <c r="E44" s="19"/>
       <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
+      <c r="G44" s="20"/>
       <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="K44" s="19"/>
       <c r="L44" s="19"/>
-      <c r="M44" s="19"/>
+      <c r="T44" s="19"/>
       <c r="U44" s="19"/>
-      <c r="V44" s="19"/>
-      <c r="AA44" s="19"/>
-    </row>
-    <row r="45" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z44" s="19"/>
+    </row>
+    <row r="45" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="19"/>
       <c r="B45" s="19"/>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
       <c r="E45" s="19"/>
       <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
+      <c r="G45" s="20"/>
       <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="K45" s="19"/>
       <c r="L45" s="19"/>
-      <c r="M45" s="19"/>
+      <c r="T45" s="19"/>
       <c r="U45" s="19"/>
-      <c r="V45" s="19"/>
-      <c r="AA45" s="19"/>
-    </row>
-    <row r="46" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z45" s="19"/>
+    </row>
+    <row r="46" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="19"/>
       <c r="B46" s="19"/>
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
       <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
+      <c r="G46" s="20"/>
       <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="K46" s="19"/>
       <c r="L46" s="19"/>
-      <c r="M46" s="19"/>
+      <c r="T46" s="19"/>
       <c r="U46" s="19"/>
-      <c r="V46" s="19"/>
-      <c r="AA46" s="19"/>
-    </row>
-    <row r="47" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z46" s="19"/>
+    </row>
+    <row r="47" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="19"/>
       <c r="B47" s="19"/>
       <c r="C47" s="19"/>
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
       <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
+      <c r="G47" s="20"/>
       <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="26"/>
+      <c r="I47" s="26"/>
+      <c r="K47" s="19"/>
       <c r="L47" s="19"/>
-      <c r="M47" s="19"/>
+      <c r="T47" s="19"/>
       <c r="U47" s="19"/>
-      <c r="V47" s="19"/>
-      <c r="AA47" s="19"/>
-    </row>
-    <row r="48" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z47" s="19"/>
+    </row>
+    <row r="48" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="19"/>
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
       <c r="D48" s="19"/>
       <c r="E48" s="19"/>
       <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
+      <c r="G48" s="20"/>
       <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="26"/>
+      <c r="I48" s="26"/>
+      <c r="K48" s="19"/>
       <c r="L48" s="19"/>
-      <c r="M48" s="19"/>
+      <c r="T48" s="19"/>
       <c r="U48" s="19"/>
-      <c r="V48" s="19"/>
-      <c r="AA48" s="19"/>
-    </row>
-    <row r="49" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z48" s="19"/>
+    </row>
+    <row r="49" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="19"/>
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
       <c r="E49" s="19"/>
       <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
+      <c r="G49" s="20"/>
       <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="K49" s="19"/>
       <c r="L49" s="19"/>
-      <c r="M49" s="19"/>
+      <c r="T49" s="19"/>
       <c r="U49" s="19"/>
-      <c r="V49" s="19"/>
-      <c r="AA49" s="19"/>
-    </row>
-    <row r="50" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z49" s="19"/>
+    </row>
+    <row r="50" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="19"/>
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
       <c r="D50" s="19"/>
       <c r="E50" s="19"/>
       <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
+      <c r="G50" s="20"/>
       <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="K50" s="19"/>
       <c r="L50" s="19"/>
-      <c r="M50" s="19"/>
+      <c r="T50" s="19"/>
       <c r="U50" s="19"/>
-      <c r="V50" s="19"/>
-      <c r="AA50" s="19"/>
-    </row>
-    <row r="51" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z50" s="19"/>
+    </row>
+    <row r="51" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="19"/>
       <c r="B51" s="19"/>
       <c r="C51" s="19"/>
       <c r="D51" s="19"/>
       <c r="E51" s="19"/>
       <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
+      <c r="G51" s="20"/>
       <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="K51" s="19"/>
       <c r="L51" s="19"/>
-      <c r="M51" s="19"/>
+      <c r="T51" s="19"/>
       <c r="U51" s="19"/>
-      <c r="V51" s="19"/>
-      <c r="AA51" s="19"/>
-    </row>
-    <row r="52" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z51" s="19"/>
+    </row>
+    <row r="52" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="19"/>
       <c r="B52" s="19"/>
       <c r="C52" s="19"/>
       <c r="D52" s="19"/>
       <c r="E52" s="19"/>
       <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
+      <c r="G52" s="20"/>
       <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="K52" s="19"/>
       <c r="L52" s="19"/>
-      <c r="M52" s="19"/>
+      <c r="T52" s="19"/>
       <c r="U52" s="19"/>
-      <c r="V52" s="19"/>
-      <c r="AA52" s="19"/>
-    </row>
-    <row r="53" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z52" s="19"/>
+    </row>
+    <row r="53" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="19"/>
       <c r="B53" s="19"/>
       <c r="C53" s="19"/>
       <c r="D53" s="19"/>
       <c r="E53" s="19"/>
       <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
+      <c r="G53" s="20"/>
       <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="26"/>
+      <c r="I53" s="26"/>
+      <c r="K53" s="19"/>
       <c r="L53" s="19"/>
-      <c r="M53" s="19"/>
+      <c r="T53" s="19"/>
       <c r="U53" s="19"/>
-      <c r="V53" s="19"/>
-      <c r="AA53" s="19"/>
-    </row>
-    <row r="54" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z53" s="19"/>
+    </row>
+    <row r="54" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="19"/>
       <c r="B54" s="19"/>
       <c r="C54" s="19"/>
       <c r="D54" s="19"/>
       <c r="E54" s="19"/>
       <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
+      <c r="G54" s="20"/>
       <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="26"/>
+      <c r="I54" s="26"/>
+      <c r="K54" s="19"/>
       <c r="L54" s="19"/>
-      <c r="M54" s="19"/>
+      <c r="T54" s="19"/>
       <c r="U54" s="19"/>
-      <c r="V54" s="19"/>
-      <c r="AA54" s="19"/>
-    </row>
-    <row r="55" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z54" s="19"/>
+    </row>
+    <row r="55" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="19"/>
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
       <c r="D55" s="19"/>
       <c r="E55" s="19"/>
       <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
+      <c r="G55" s="20"/>
       <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="26"/>
+      <c r="I55" s="26"/>
+      <c r="K55" s="19"/>
       <c r="L55" s="19"/>
-      <c r="M55" s="19"/>
+      <c r="T55" s="19"/>
       <c r="U55" s="19"/>
-      <c r="V55" s="19"/>
-      <c r="AA55" s="19"/>
-    </row>
-    <row r="56" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z55" s="19"/>
+    </row>
+    <row r="56" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="19"/>
       <c r="B56" s="19"/>
       <c r="C56" s="19"/>
       <c r="D56" s="19"/>
       <c r="E56" s="19"/>
       <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
+      <c r="G56" s="20"/>
       <c r="H56" s="20"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="26"/>
+      <c r="I56" s="26"/>
+      <c r="K56" s="19"/>
       <c r="L56" s="19"/>
-      <c r="M56" s="19"/>
+      <c r="T56" s="19"/>
       <c r="U56" s="19"/>
-      <c r="V56" s="19"/>
-      <c r="AA56" s="19"/>
-    </row>
-    <row r="57" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z56" s="19"/>
+    </row>
+    <row r="57" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="19"/>
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
       <c r="D57" s="19"/>
       <c r="E57" s="19"/>
       <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
+      <c r="G57" s="20"/>
       <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="26"/>
+      <c r="I57" s="26"/>
+      <c r="K57" s="19"/>
       <c r="L57" s="19"/>
-      <c r="M57" s="19"/>
+      <c r="T57" s="19"/>
       <c r="U57" s="19"/>
-      <c r="V57" s="19"/>
-      <c r="AA57" s="19"/>
-    </row>
-    <row r="58" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z57" s="19"/>
+    </row>
+    <row r="58" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="19"/>
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
       <c r="D58" s="19"/>
       <c r="E58" s="19"/>
       <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
+      <c r="G58" s="20"/>
       <c r="H58" s="20"/>
-      <c r="I58" s="20"/>
-      <c r="J58" s="26"/>
+      <c r="I58" s="26"/>
+      <c r="K58" s="19"/>
       <c r="L58" s="19"/>
-      <c r="M58" s="19"/>
+      <c r="T58" s="19"/>
       <c r="U58" s="19"/>
-      <c r="V58" s="19"/>
-      <c r="AA58" s="19"/>
-    </row>
-    <row r="59" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z58" s="19"/>
+    </row>
+    <row r="59" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="19"/>
       <c r="B59" s="19"/>
       <c r="C59" s="19"/>
       <c r="D59" s="19"/>
       <c r="E59" s="19"/>
       <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
+      <c r="G59" s="20"/>
       <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="26"/>
+      <c r="I59" s="26"/>
+      <c r="K59" s="19"/>
       <c r="L59" s="19"/>
-      <c r="M59" s="19"/>
+      <c r="T59" s="19"/>
       <c r="U59" s="19"/>
-      <c r="V59" s="19"/>
-      <c r="AA59" s="19"/>
-    </row>
-    <row r="60" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z59" s="19"/>
+    </row>
+    <row r="60" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="19"/>
       <c r="B60" s="19"/>
       <c r="C60" s="19"/>
       <c r="D60" s="19"/>
       <c r="E60" s="19"/>
       <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
+      <c r="G60" s="20"/>
       <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
-      <c r="J60" s="26"/>
+      <c r="I60" s="26"/>
+      <c r="K60" s="19"/>
       <c r="L60" s="19"/>
-      <c r="M60" s="19"/>
+      <c r="T60" s="19"/>
       <c r="U60" s="19"/>
-      <c r="V60" s="19"/>
-      <c r="AA60" s="19"/>
-    </row>
-    <row r="61" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z60" s="19"/>
+    </row>
+    <row r="61" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="19"/>
       <c r="B61" s="19"/>
       <c r="C61" s="19"/>
       <c r="D61" s="19"/>
       <c r="E61" s="19"/>
       <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
+      <c r="G61" s="20"/>
       <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
-      <c r="J61" s="26"/>
+      <c r="I61" s="26"/>
+      <c r="K61" s="19"/>
       <c r="L61" s="19"/>
-      <c r="M61" s="19"/>
+      <c r="T61" s="19"/>
       <c r="U61" s="19"/>
-      <c r="V61" s="19"/>
-      <c r="AA61" s="19"/>
-    </row>
-    <row r="62" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z61" s="19"/>
+    </row>
+    <row r="62" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="19"/>
       <c r="B62" s="19"/>
       <c r="C62" s="19"/>
       <c r="D62" s="19"/>
       <c r="E62" s="19"/>
       <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
+      <c r="G62" s="20"/>
       <c r="H62" s="20"/>
-      <c r="I62" s="20"/>
-      <c r="J62" s="26"/>
+      <c r="I62" s="26"/>
+      <c r="K62" s="19"/>
       <c r="L62" s="19"/>
-      <c r="M62" s="19"/>
+      <c r="T62" s="19"/>
       <c r="U62" s="19"/>
-      <c r="V62" s="19"/>
-      <c r="AA62" s="19"/>
-    </row>
-    <row r="63" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z62" s="19"/>
+    </row>
+    <row r="63" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="19"/>
       <c r="B63" s="19"/>
       <c r="C63" s="19"/>
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
       <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
+      <c r="G63" s="20"/>
       <c r="H63" s="20"/>
-      <c r="I63" s="20"/>
-      <c r="J63" s="26"/>
+      <c r="I63" s="26"/>
+      <c r="K63" s="19"/>
       <c r="L63" s="19"/>
-      <c r="M63" s="19"/>
+      <c r="T63" s="19"/>
       <c r="U63" s="19"/>
-      <c r="V63" s="19"/>
-      <c r="AA63" s="19"/>
-    </row>
-    <row r="64" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z63" s="19"/>
+    </row>
+    <row r="64" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="19"/>
       <c r="B64" s="19"/>
       <c r="C64" s="19"/>
       <c r="D64" s="19"/>
       <c r="E64" s="19"/>
       <c r="F64" s="19"/>
-      <c r="G64" s="19"/>
+      <c r="G64" s="20"/>
       <c r="H64" s="20"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="26"/>
+      <c r="I64" s="26"/>
+      <c r="K64" s="19"/>
       <c r="L64" s="19"/>
-      <c r="M64" s="19"/>
+      <c r="T64" s="19"/>
       <c r="U64" s="19"/>
-      <c r="V64" s="19"/>
-      <c r="AA64" s="19"/>
-    </row>
-    <row r="65" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z64" s="19"/>
+    </row>
+    <row r="65" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="19"/>
       <c r="B65" s="19"/>
       <c r="C65" s="19"/>
       <c r="D65" s="19"/>
       <c r="E65" s="19"/>
       <c r="F65" s="19"/>
-      <c r="G65" s="19"/>
+      <c r="G65" s="20"/>
       <c r="H65" s="20"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="26"/>
+      <c r="I65" s="26"/>
+      <c r="K65" s="19"/>
       <c r="L65" s="19"/>
-      <c r="M65" s="19"/>
+      <c r="T65" s="19"/>
       <c r="U65" s="19"/>
-      <c r="V65" s="19"/>
-      <c r="AA65" s="19"/>
-    </row>
-    <row r="66" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z65" s="19"/>
+    </row>
+    <row r="66" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="19"/>
       <c r="B66" s="19"/>
       <c r="C66" s="19"/>
       <c r="D66" s="19"/>
       <c r="E66" s="19"/>
       <c r="F66" s="19"/>
-      <c r="G66" s="19"/>
+      <c r="G66" s="20"/>
       <c r="H66" s="20"/>
-      <c r="I66" s="20"/>
-      <c r="J66" s="26"/>
+      <c r="I66" s="26"/>
+      <c r="K66" s="19"/>
       <c r="L66" s="19"/>
-      <c r="M66" s="19"/>
+      <c r="T66" s="19"/>
       <c r="U66" s="19"/>
-      <c r="V66" s="19"/>
-      <c r="AA66" s="19"/>
-    </row>
-    <row r="67" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z66" s="19"/>
+    </row>
+    <row r="67" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="19"/>
       <c r="B67" s="19"/>
       <c r="C67" s="19"/>
       <c r="D67" s="19"/>
       <c r="E67" s="19"/>
       <c r="F67" s="19"/>
-      <c r="G67" s="19"/>
+      <c r="G67" s="20"/>
       <c r="H67" s="20"/>
-      <c r="I67" s="20"/>
-      <c r="J67" s="26"/>
+      <c r="I67" s="26"/>
+      <c r="K67" s="19"/>
       <c r="L67" s="19"/>
-      <c r="M67" s="19"/>
+      <c r="T67" s="19"/>
       <c r="U67" s="19"/>
-      <c r="V67" s="19"/>
-      <c r="AA67" s="19"/>
-    </row>
-    <row r="68" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z67" s="19"/>
+    </row>
+    <row r="68" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="19"/>
       <c r="B68" s="19"/>
       <c r="C68" s="19"/>
       <c r="D68" s="19"/>
       <c r="E68" s="19"/>
       <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
+      <c r="G68" s="20"/>
       <c r="H68" s="20"/>
-      <c r="I68" s="20"/>
-      <c r="J68" s="26"/>
+      <c r="I68" s="26"/>
+      <c r="K68" s="19"/>
       <c r="L68" s="19"/>
-      <c r="M68" s="19"/>
+      <c r="T68" s="19"/>
       <c r="U68" s="19"/>
-      <c r="V68" s="19"/>
-      <c r="AA68" s="19"/>
-    </row>
-    <row r="69" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z68" s="19"/>
+    </row>
+    <row r="69" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="19"/>
       <c r="B69" s="19"/>
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
       <c r="E69" s="19"/>
       <c r="F69" s="19"/>
-      <c r="G69" s="19"/>
+      <c r="G69" s="20"/>
       <c r="H69" s="20"/>
-      <c r="I69" s="20"/>
-      <c r="J69" s="26"/>
+      <c r="I69" s="26"/>
+      <c r="K69" s="19"/>
       <c r="L69" s="19"/>
-      <c r="M69" s="19"/>
+      <c r="T69" s="19"/>
       <c r="U69" s="19"/>
-      <c r="V69" s="19"/>
-      <c r="AA69" s="19"/>
-    </row>
-    <row r="70" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z69" s="19"/>
+    </row>
+    <row r="70" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="19"/>
       <c r="B70" s="19"/>
       <c r="C70" s="19"/>
       <c r="D70" s="19"/>
       <c r="E70" s="19"/>
       <c r="F70" s="19"/>
-      <c r="G70" s="19"/>
+      <c r="G70" s="20"/>
       <c r="H70" s="20"/>
-      <c r="I70" s="20"/>
-      <c r="J70" s="26"/>
+      <c r="I70" s="26"/>
+      <c r="K70" s="19"/>
       <c r="L70" s="19"/>
-      <c r="M70" s="19"/>
+      <c r="T70" s="19"/>
       <c r="U70" s="19"/>
-      <c r="V70" s="19"/>
-      <c r="AA70" s="19"/>
-    </row>
-    <row r="71" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z70" s="19"/>
+    </row>
+    <row r="71" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="19"/>
       <c r="B71" s="19"/>
       <c r="C71" s="19"/>
       <c r="D71" s="19"/>
       <c r="E71" s="19"/>
       <c r="F71" s="19"/>
-      <c r="G71" s="19"/>
+      <c r="G71" s="20"/>
       <c r="H71" s="20"/>
-      <c r="I71" s="20"/>
-      <c r="J71" s="26"/>
+      <c r="I71" s="26"/>
+      <c r="K71" s="19"/>
       <c r="L71" s="19"/>
-      <c r="M71" s="19"/>
+      <c r="T71" s="19"/>
       <c r="U71" s="19"/>
-      <c r="V71" s="19"/>
-      <c r="AA71" s="19"/>
-    </row>
-    <row r="72" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z71" s="19"/>
+    </row>
+    <row r="72" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="19"/>
       <c r="B72" s="19"/>
       <c r="C72" s="19"/>
       <c r="D72" s="19"/>
       <c r="E72" s="19"/>
       <c r="F72" s="19"/>
-      <c r="G72" s="19"/>
+      <c r="G72" s="20"/>
       <c r="H72" s="20"/>
-      <c r="I72" s="20"/>
-      <c r="J72" s="26"/>
+      <c r="I72" s="26"/>
+      <c r="K72" s="19"/>
       <c r="L72" s="19"/>
-      <c r="M72" s="19"/>
+      <c r="T72" s="19"/>
       <c r="U72" s="19"/>
-      <c r="V72" s="19"/>
-      <c r="AA72" s="19"/>
-    </row>
-    <row r="73" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z72" s="19"/>
+    </row>
+    <row r="73" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="19"/>
       <c r="B73" s="19"/>
       <c r="C73" s="19"/>
       <c r="D73" s="19"/>
       <c r="E73" s="19"/>
       <c r="F73" s="19"/>
-      <c r="G73" s="19"/>
+      <c r="G73" s="20"/>
       <c r="H73" s="20"/>
-      <c r="I73" s="20"/>
-      <c r="J73" s="26"/>
+      <c r="I73" s="26"/>
+      <c r="K73" s="19"/>
       <c r="L73" s="19"/>
-      <c r="M73" s="19"/>
+      <c r="T73" s="19"/>
       <c r="U73" s="19"/>
-      <c r="V73" s="19"/>
-      <c r="AA73" s="19"/>
-    </row>
-    <row r="74" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z73" s="19"/>
+    </row>
+    <row r="74" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="19"/>
       <c r="B74" s="19"/>
       <c r="C74" s="19"/>
       <c r="D74" s="19"/>
       <c r="E74" s="19"/>
       <c r="F74" s="19"/>
-      <c r="G74" s="19"/>
+      <c r="G74" s="20"/>
       <c r="H74" s="20"/>
-      <c r="I74" s="20"/>
-      <c r="J74" s="26"/>
+      <c r="I74" s="26"/>
+      <c r="K74" s="19"/>
       <c r="L74" s="19"/>
-      <c r="M74" s="19"/>
+      <c r="T74" s="19"/>
       <c r="U74" s="19"/>
-      <c r="V74" s="19"/>
-      <c r="AA74" s="19"/>
-    </row>
-    <row r="75" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z74" s="19"/>
+    </row>
+    <row r="75" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="19"/>
       <c r="B75" s="19"/>
       <c r="C75" s="19"/>
       <c r="D75" s="19"/>
       <c r="E75" s="19"/>
       <c r="F75" s="19"/>
-      <c r="G75" s="19"/>
+      <c r="G75" s="20"/>
       <c r="H75" s="20"/>
-      <c r="I75" s="20"/>
-      <c r="J75" s="26"/>
+      <c r="I75" s="26"/>
+      <c r="K75" s="19"/>
       <c r="L75" s="19"/>
-      <c r="M75" s="19"/>
+      <c r="T75" s="19"/>
       <c r="U75" s="19"/>
-      <c r="V75" s="19"/>
-      <c r="AA75" s="19"/>
-    </row>
-    <row r="76" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z75" s="19"/>
+    </row>
+    <row r="76" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="19"/>
       <c r="B76" s="19"/>
       <c r="C76" s="19"/>
       <c r="D76" s="19"/>
       <c r="E76" s="19"/>
       <c r="F76" s="19"/>
-      <c r="G76" s="19"/>
+      <c r="G76" s="20"/>
       <c r="H76" s="20"/>
-      <c r="I76" s="20"/>
-      <c r="J76" s="26"/>
+      <c r="I76" s="26"/>
+      <c r="K76" s="19"/>
       <c r="L76" s="19"/>
-      <c r="M76" s="19"/>
+      <c r="T76" s="19"/>
       <c r="U76" s="19"/>
-      <c r="V76" s="19"/>
-      <c r="AA76" s="19"/>
-    </row>
-    <row r="77" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z76" s="19"/>
+    </row>
+    <row r="77" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="19"/>
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
       <c r="D77" s="19"/>
       <c r="E77" s="19"/>
       <c r="F77" s="19"/>
-      <c r="G77" s="19"/>
+      <c r="G77" s="20"/>
       <c r="H77" s="20"/>
-      <c r="I77" s="20"/>
-      <c r="J77" s="26"/>
+      <c r="I77" s="26"/>
+      <c r="K77" s="19"/>
       <c r="L77" s="19"/>
-      <c r="M77" s="19"/>
+      <c r="T77" s="19"/>
       <c r="U77" s="19"/>
-      <c r="V77" s="19"/>
-      <c r="AA77" s="19"/>
-    </row>
-    <row r="78" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z77" s="19"/>
+    </row>
+    <row r="78" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="19"/>
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
       <c r="D78" s="19"/>
       <c r="E78" s="19"/>
       <c r="F78" s="19"/>
-      <c r="G78" s="19"/>
+      <c r="G78" s="20"/>
       <c r="H78" s="20"/>
-      <c r="I78" s="20"/>
-      <c r="J78" s="26"/>
+      <c r="I78" s="26"/>
+      <c r="K78" s="19"/>
       <c r="L78" s="19"/>
-      <c r="M78" s="19"/>
+      <c r="T78" s="19"/>
       <c r="U78" s="19"/>
-      <c r="V78" s="19"/>
-      <c r="AA78" s="19"/>
-    </row>
-    <row r="79" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z78" s="19"/>
+    </row>
+    <row r="79" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="19"/>
       <c r="B79" s="19"/>
       <c r="C79" s="19"/>
       <c r="D79" s="19"/>
       <c r="E79" s="19"/>
       <c r="F79" s="19"/>
-      <c r="G79" s="19"/>
+      <c r="G79" s="20"/>
       <c r="H79" s="20"/>
-      <c r="I79" s="20"/>
-      <c r="J79" s="26"/>
+      <c r="I79" s="26"/>
+      <c r="K79" s="19"/>
       <c r="L79" s="19"/>
-      <c r="M79" s="19"/>
+      <c r="T79" s="19"/>
       <c r="U79" s="19"/>
-      <c r="V79" s="19"/>
-      <c r="AA79" s="19"/>
-    </row>
-    <row r="80" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z79" s="19"/>
+    </row>
+    <row r="80" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="19"/>
       <c r="B80" s="19"/>
       <c r="C80" s="19"/>
       <c r="D80" s="19"/>
       <c r="E80" s="19"/>
       <c r="F80" s="19"/>
-      <c r="G80" s="19"/>
+      <c r="G80" s="20"/>
       <c r="H80" s="20"/>
-      <c r="I80" s="20"/>
-      <c r="J80" s="26"/>
+      <c r="I80" s="26"/>
+      <c r="K80" s="19"/>
       <c r="L80" s="19"/>
-      <c r="M80" s="19"/>
+      <c r="T80" s="19"/>
       <c r="U80" s="19"/>
-      <c r="V80" s="19"/>
-      <c r="AA80" s="19"/>
-    </row>
-    <row r="81" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z80" s="19"/>
+    </row>
+    <row r="81" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="19"/>
       <c r="B81" s="19"/>
       <c r="C81" s="19"/>
       <c r="D81" s="19"/>
       <c r="E81" s="19"/>
       <c r="F81" s="19"/>
-      <c r="G81" s="19"/>
+      <c r="G81" s="20"/>
       <c r="H81" s="20"/>
-      <c r="I81" s="20"/>
-      <c r="J81" s="26"/>
+      <c r="I81" s="26"/>
+      <c r="K81" s="19"/>
       <c r="L81" s="19"/>
-      <c r="M81" s="19"/>
+      <c r="T81" s="19"/>
       <c r="U81" s="19"/>
-      <c r="V81" s="19"/>
-      <c r="AA81" s="19"/>
-    </row>
-    <row r="82" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z81" s="19"/>
+    </row>
+    <row r="82" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="19"/>
       <c r="B82" s="19"/>
       <c r="C82" s="19"/>
       <c r="D82" s="19"/>
       <c r="E82" s="19"/>
       <c r="F82" s="19"/>
-      <c r="G82" s="19"/>
+      <c r="G82" s="20"/>
       <c r="H82" s="20"/>
-      <c r="I82" s="20"/>
-      <c r="J82" s="26"/>
+      <c r="I82" s="26"/>
+      <c r="K82" s="19"/>
       <c r="L82" s="19"/>
-      <c r="M82" s="19"/>
+      <c r="T82" s="19"/>
       <c r="U82" s="19"/>
-      <c r="V82" s="19"/>
-      <c r="AA82" s="19"/>
-    </row>
-    <row r="83" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z82" s="19"/>
+    </row>
+    <row r="83" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="19"/>
       <c r="B83" s="19"/>
       <c r="C83" s="19"/>
       <c r="D83" s="19"/>
       <c r="E83" s="19"/>
       <c r="F83" s="19"/>
-      <c r="G83" s="19"/>
+      <c r="G83" s="20"/>
       <c r="H83" s="20"/>
-      <c r="I83" s="20"/>
-      <c r="J83" s="26"/>
+      <c r="I83" s="26"/>
+      <c r="K83" s="19"/>
       <c r="L83" s="19"/>
-      <c r="M83" s="19"/>
+      <c r="T83" s="19"/>
       <c r="U83" s="19"/>
-      <c r="V83" s="19"/>
-      <c r="AA83" s="19"/>
-    </row>
-    <row r="84" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z83" s="19"/>
+    </row>
+    <row r="84" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="19"/>
       <c r="B84" s="19"/>
       <c r="C84" s="19"/>
       <c r="D84" s="19"/>
       <c r="E84" s="19"/>
       <c r="F84" s="19"/>
-      <c r="G84" s="19"/>
+      <c r="G84" s="20"/>
       <c r="H84" s="20"/>
-      <c r="I84" s="20"/>
-      <c r="J84" s="26"/>
+      <c r="I84" s="26"/>
+      <c r="K84" s="19"/>
       <c r="L84" s="19"/>
-      <c r="M84" s="19"/>
+      <c r="T84" s="19"/>
       <c r="U84" s="19"/>
-      <c r="V84" s="19"/>
-      <c r="AA84" s="19"/>
-    </row>
-    <row r="85" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z84" s="19"/>
+    </row>
+    <row r="85" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="19"/>
       <c r="B85" s="19"/>
       <c r="C85" s="19"/>
       <c r="D85" s="19"/>
       <c r="E85" s="19"/>
       <c r="F85" s="19"/>
-      <c r="G85" s="19"/>
+      <c r="G85" s="20"/>
       <c r="H85" s="20"/>
-      <c r="I85" s="20"/>
-      <c r="J85" s="26"/>
+      <c r="I85" s="26"/>
+      <c r="K85" s="19"/>
       <c r="L85" s="19"/>
-      <c r="M85" s="19"/>
+      <c r="T85" s="19"/>
       <c r="U85" s="19"/>
-      <c r="V85" s="19"/>
-      <c r="AA85" s="19"/>
-    </row>
-    <row r="86" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z85" s="19"/>
+    </row>
+    <row r="86" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="19"/>
       <c r="B86" s="19"/>
       <c r="C86" s="19"/>
       <c r="D86" s="19"/>
       <c r="E86" s="19"/>
       <c r="F86" s="19"/>
-      <c r="G86" s="19"/>
+      <c r="G86" s="20"/>
       <c r="H86" s="20"/>
-      <c r="I86" s="20"/>
-      <c r="J86" s="26"/>
+      <c r="I86" s="26"/>
+      <c r="K86" s="19"/>
       <c r="L86" s="19"/>
-      <c r="M86" s="19"/>
+      <c r="T86" s="19"/>
       <c r="U86" s="19"/>
-      <c r="V86" s="19"/>
-      <c r="AA86" s="19"/>
-    </row>
-    <row r="87" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z86" s="19"/>
+    </row>
+    <row r="87" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="19"/>
       <c r="B87" s="19"/>
       <c r="C87" s="19"/>
       <c r="D87" s="19"/>
       <c r="E87" s="19"/>
       <c r="F87" s="19"/>
-      <c r="G87" s="19"/>
+      <c r="G87" s="20"/>
       <c r="H87" s="20"/>
-      <c r="I87" s="20"/>
-      <c r="J87" s="26"/>
+      <c r="I87" s="26"/>
+      <c r="K87" s="19"/>
       <c r="L87" s="19"/>
-      <c r="M87" s="19"/>
+      <c r="T87" s="19"/>
       <c r="U87" s="19"/>
-      <c r="V87" s="19"/>
-      <c r="AA87" s="19"/>
-    </row>
-    <row r="88" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z87" s="19"/>
+    </row>
+    <row r="88" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="19"/>
       <c r="B88" s="19"/>
       <c r="C88" s="19"/>
       <c r="D88" s="19"/>
       <c r="E88" s="19"/>
       <c r="F88" s="19"/>
-      <c r="G88" s="19"/>
+      <c r="G88" s="20"/>
       <c r="H88" s="20"/>
-      <c r="I88" s="20"/>
-      <c r="J88" s="26"/>
+      <c r="I88" s="26"/>
+      <c r="K88" s="19"/>
       <c r="L88" s="19"/>
-      <c r="M88" s="19"/>
+      <c r="T88" s="19"/>
       <c r="U88" s="19"/>
-      <c r="V88" s="19"/>
-      <c r="AA88" s="19"/>
-    </row>
-    <row r="89" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z88" s="19"/>
+    </row>
+    <row r="89" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="19"/>
       <c r="B89" s="19"/>
       <c r="C89" s="19"/>
       <c r="D89" s="19"/>
       <c r="E89" s="19"/>
       <c r="F89" s="19"/>
-      <c r="G89" s="19"/>
+      <c r="G89" s="20"/>
       <c r="H89" s="20"/>
-      <c r="I89" s="20"/>
-      <c r="J89" s="26"/>
+      <c r="I89" s="26"/>
+      <c r="K89" s="19"/>
       <c r="L89" s="19"/>
-      <c r="M89" s="19"/>
+      <c r="T89" s="19"/>
       <c r="U89" s="19"/>
-      <c r="V89" s="19"/>
-      <c r="AA89" s="19"/>
-    </row>
-    <row r="90" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="Z89" s="19"/>
+    </row>
+    <row r="90" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="K1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="J1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="V1:W1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <legacyDrawing r:id="rId1"/>
@@ -3091,90 +2996,90 @@
       <c r="AV1" s="8"/>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="38" t="s">
+      <c r="D2" s="39"/>
+      <c r="E2" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="38" t="s">
+      <c r="H2" s="39"/>
+      <c r="I2" s="36" t="s">
         <v>44</v>
       </c>
       <c r="J2" s="40"/>
       <c r="K2" s="40"/>
       <c r="L2" s="40"/>
       <c r="M2" s="40"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="36" t="s">
+      <c r="N2" s="37"/>
+      <c r="O2" s="38" t="s">
         <v>45</v>
       </c>
       <c r="P2" s="41"/>
       <c r="Q2" s="41"/>
       <c r="R2" s="41"/>
       <c r="S2" s="41"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="38" t="s">
+      <c r="T2" s="39"/>
+      <c r="U2" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="V2" s="39"/>
-      <c r="W2" s="36" t="s">
+      <c r="V2" s="37"/>
+      <c r="W2" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="38" t="s">
+      <c r="X2" s="39"/>
+      <c r="Y2" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="Z2" s="39"/>
-      <c r="AA2" s="36" t="s">
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="38" t="s">
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="AD2" s="39"/>
-      <c r="AE2" s="36" t="s">
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="38" t="s">
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="AH2" s="39"/>
-      <c r="AI2" s="36" t="s">
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="38" t="s">
+      <c r="AJ2" s="39"/>
+      <c r="AK2" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="36" t="s">
+      <c r="AL2" s="37"/>
+      <c r="AM2" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="AN2" s="37"/>
-      <c r="AO2" s="38" t="s">
+      <c r="AN2" s="39"/>
+      <c r="AO2" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="AP2" s="39"/>
-      <c r="AQ2" s="36" t="s">
+      <c r="AP2" s="37"/>
+      <c r="AQ2" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="AR2" s="37"/>
-      <c r="AS2" s="38" t="s">
+      <c r="AR2" s="39"/>
+      <c r="AS2" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="AT2" s="39"/>
-      <c r="AU2" s="36" t="s">
+      <c r="AT2" s="37"/>
+      <c r="AU2" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="AV2" s="37"/>
+      <c r="AV2" s="39"/>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -6816,6 +6721,16 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="AO2:AP2"/>
     <mergeCell ref="AQ2:AR2"/>
     <mergeCell ref="AS2:AT2"/>
@@ -6825,16 +6740,6 @@
     <mergeCell ref="AI2:AJ2"/>
     <mergeCell ref="AK2:AL2"/>
     <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="O2:T2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <legacyDrawing r:id="rId1"/>
@@ -6846,11 +6751,11 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:Y141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="P72" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y72" sqref="Y72"/>
+      <selection pane="bottomRight" activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6933,57 +6838,57 @@
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="36" t="s">
         <v>88</v>
       </c>
       <c r="I2" s="40"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="42" t="s">
+      <c r="J2" s="37"/>
+      <c r="K2" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="L2" s="43" t="s">
+      <c r="L2" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="M2" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="N2" s="43" t="s">
+      <c r="N2" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="42" t="s">
+      <c r="O2" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="P2" s="43" t="s">
+      <c r="P2" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="Q2" s="42" t="s">
+      <c r="Q2" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="R2" s="43" t="s">
+      <c r="R2" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="S2" s="42" t="s">
+      <c r="S2" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="T2" s="43" t="s">
+      <c r="T2" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="U2" s="42" t="s">
+      <c r="U2" s="43" t="s">
         <v>99</v>
       </c>
     </row>
@@ -8236,7 +8141,7 @@
       <c r="U72" s="20"/>
       <c r="W72" s="23"/>
       <c r="Y72" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="73" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -8853,6 +8758,16 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C2"/>
+    <mergeCell ref="D2"/>
+    <mergeCell ref="E2"/>
+    <mergeCell ref="F2"/>
+    <mergeCell ref="G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2"/>
+    <mergeCell ref="L2"/>
+    <mergeCell ref="M2"/>
+    <mergeCell ref="N2"/>
     <mergeCell ref="T2"/>
     <mergeCell ref="U2"/>
     <mergeCell ref="O2"/>
@@ -8860,16 +8775,6 @@
     <mergeCell ref="Q2"/>
     <mergeCell ref="R2"/>
     <mergeCell ref="S2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2"/>
-    <mergeCell ref="L2"/>
-    <mergeCell ref="M2"/>
-    <mergeCell ref="N2"/>
-    <mergeCell ref="C2"/>
-    <mergeCell ref="D2"/>
-    <mergeCell ref="E2"/>
-    <mergeCell ref="F2"/>
-    <mergeCell ref="G2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <legacyDrawing r:id="rId1"/>
@@ -8902,16 +8807,16 @@
       </c>
       <c r="D1" s="8"/>
       <c r="E1" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C2" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="39"/>
+      <c r="E2" s="32" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C2" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="32" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">

--- a/OperadoraNominas/bin/Debug/Archivos/timbrado_idn_s.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/timbrado_idn_s.xlsx
@@ -57,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -101,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -126,7 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0">
+    <comment ref="W1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -144,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0">
+    <comment ref="Y1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -166,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0">
+    <comment ref="AA1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -282,7 +282,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="110">
   <si>
     <t>No. Empleado</t>
   </si>
@@ -609,6 +609,9 @@
   </si>
   <si>
     <t>+W72-X72</t>
+  </si>
+  <si>
+    <t>Código P.</t>
   </si>
 </sst>
 </file>
@@ -949,7 +952,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -996,16 +999,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1014,12 +1017,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda 2" xfId="1"/>
@@ -1324,13 +1329,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:AC90"/>
+  <dimension ref="A1:AD90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B1048576"/>
+      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1344,25 +1349,26 @@
     <col min="7" max="8" width="9.7109375" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" customWidth="1"/>
-    <col min="13" max="14" width="9.7109375" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" customWidth="1"/>
-    <col min="16" max="16" width="5.7109375" customWidth="1"/>
-    <col min="17" max="17" width="8.7109375" customWidth="1"/>
-    <col min="18" max="18" width="6.7109375" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" customWidth="1"/>
-    <col min="20" max="20" width="17.7109375" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" customWidth="1"/>
-    <col min="22" max="25" width="9.7109375" customWidth="1"/>
-    <col min="26" max="26" width="5.7109375" customWidth="1"/>
-    <col min="27" max="27" width="19.7109375" customWidth="1"/>
-    <col min="28" max="28" width="16.7109375" customWidth="1"/>
-    <col min="29" max="29" width="15.7109375" customWidth="1"/>
-    <col min="30" max="31" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="18" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" customWidth="1"/>
+    <col min="14" max="15" width="9.7109375" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" customWidth="1"/>
+    <col min="17" max="17" width="5.7109375" customWidth="1"/>
+    <col min="18" max="18" width="8.7109375" customWidth="1"/>
+    <col min="19" max="19" width="6.7109375" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" customWidth="1"/>
+    <col min="21" max="21" width="17.7109375" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" customWidth="1"/>
+    <col min="23" max="26" width="9.7109375" customWidth="1"/>
+    <col min="27" max="27" width="5.7109375" customWidth="1"/>
+    <col min="28" max="28" width="19.7109375" customWidth="1"/>
+    <col min="29" max="29" width="16.7109375" customWidth="1"/>
+    <col min="30" max="30" width="15.7109375" customWidth="1"/>
+    <col min="31" max="32" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1394,49 +1400,52 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="N1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="34"/>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="34"/>
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="Q1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="33" t="s">
+      <c r="R1" s="34"/>
+      <c r="S1" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="34"/>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="34"/>
+      <c r="U1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="33" t="s">
+      <c r="W1" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="34"/>
-      <c r="X1" s="33" t="s">
+      <c r="X1" s="34"/>
+      <c r="Y1" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="33" t="s">
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -1446,13 +1455,14 @@
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
       <c r="I2" s="26"/>
-      <c r="K2" s="19"/>
+      <c r="K2" s="44"/>
       <c r="L2" s="19"/>
-      <c r="T2" s="19"/>
+      <c r="M2" s="19"/>
       <c r="U2" s="19"/>
-      <c r="Z2" s="19"/>
-    </row>
-    <row r="3" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V2" s="19"/>
+      <c r="AA2" s="19"/>
+    </row>
+    <row r="3" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -1463,7 +1473,7 @@
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
       <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
+      <c r="K3" s="45"/>
       <c r="L3" s="19"/>
       <c r="M3" s="19"/>
       <c r="N3" s="19"/>
@@ -1482,8 +1492,9 @@
       <c r="AA3" s="19"/>
       <c r="AB3" s="19"/>
       <c r="AC3" s="19"/>
-    </row>
-    <row r="4" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD3" s="19"/>
+    </row>
+    <row r="4" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -1493,13 +1504,14 @@
       <c r="G4" s="20"/>
       <c r="H4" s="20"/>
       <c r="I4" s="26"/>
-      <c r="K4" s="19"/>
+      <c r="K4" s="45"/>
       <c r="L4" s="19"/>
-      <c r="T4" s="19"/>
+      <c r="M4" s="19"/>
       <c r="U4" s="19"/>
-      <c r="Z4" s="19"/>
-    </row>
-    <row r="5" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V4" s="19"/>
+      <c r="AA4" s="19"/>
+    </row>
+    <row r="5" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -1509,13 +1521,14 @@
       <c r="G5" s="20"/>
       <c r="H5" s="20"/>
       <c r="I5" s="26"/>
-      <c r="K5" s="19"/>
+      <c r="K5" s="45"/>
       <c r="L5" s="19"/>
-      <c r="T5" s="19"/>
+      <c r="M5" s="19"/>
       <c r="U5" s="19"/>
-      <c r="Z5" s="19"/>
-    </row>
-    <row r="6" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V5" s="19"/>
+      <c r="AA5" s="19"/>
+    </row>
+    <row r="6" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -1525,13 +1538,14 @@
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
       <c r="I6" s="26"/>
-      <c r="K6" s="19"/>
+      <c r="K6" s="45"/>
       <c r="L6" s="19"/>
-      <c r="T6" s="19"/>
+      <c r="M6" s="19"/>
       <c r="U6" s="19"/>
-      <c r="Z6" s="19"/>
-    </row>
-    <row r="7" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V6" s="19"/>
+      <c r="AA6" s="19"/>
+    </row>
+    <row r="7" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -1541,13 +1555,14 @@
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
       <c r="I7" s="26"/>
-      <c r="K7" s="19"/>
+      <c r="K7" s="45"/>
       <c r="L7" s="19"/>
-      <c r="T7" s="19"/>
+      <c r="M7" s="19"/>
       <c r="U7" s="19"/>
-      <c r="Z7" s="19"/>
-    </row>
-    <row r="8" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V7" s="19"/>
+      <c r="AA7" s="19"/>
+    </row>
+    <row r="8" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -1557,13 +1572,14 @@
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
       <c r="I8" s="26"/>
-      <c r="K8" s="19"/>
+      <c r="K8" s="45"/>
       <c r="L8" s="19"/>
-      <c r="T8" s="19"/>
+      <c r="M8" s="19"/>
       <c r="U8" s="19"/>
-      <c r="Z8" s="19"/>
-    </row>
-    <row r="9" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V8" s="19"/>
+      <c r="AA8" s="19"/>
+    </row>
+    <row r="9" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -1573,13 +1589,14 @@
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
       <c r="I9" s="26"/>
-      <c r="K9" s="19"/>
+      <c r="K9" s="45"/>
       <c r="L9" s="19"/>
-      <c r="T9" s="19"/>
+      <c r="M9" s="19"/>
       <c r="U9" s="19"/>
-      <c r="Z9" s="19"/>
-    </row>
-    <row r="10" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V9" s="19"/>
+      <c r="AA9" s="19"/>
+    </row>
+    <row r="10" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -1589,13 +1606,14 @@
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
       <c r="I10" s="26"/>
-      <c r="K10" s="19"/>
+      <c r="K10" s="45"/>
       <c r="L10" s="19"/>
-      <c r="T10" s="19"/>
+      <c r="M10" s="19"/>
       <c r="U10" s="19"/>
-      <c r="Z10" s="19"/>
-    </row>
-    <row r="11" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V10" s="19"/>
+      <c r="AA10" s="19"/>
+    </row>
+    <row r="11" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -1605,13 +1623,14 @@
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
       <c r="I11" s="26"/>
-      <c r="K11" s="19"/>
+      <c r="K11" s="45"/>
       <c r="L11" s="19"/>
-      <c r="T11" s="19"/>
+      <c r="M11" s="19"/>
       <c r="U11" s="19"/>
-      <c r="Z11" s="19"/>
-    </row>
-    <row r="12" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V11" s="19"/>
+      <c r="AA11" s="19"/>
+    </row>
+    <row r="12" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -1621,13 +1640,14 @@
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
       <c r="I12" s="26"/>
-      <c r="K12" s="19"/>
+      <c r="K12" s="45"/>
       <c r="L12" s="19"/>
-      <c r="T12" s="19"/>
+      <c r="M12" s="19"/>
       <c r="U12" s="19"/>
-      <c r="Z12" s="19"/>
-    </row>
-    <row r="13" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V12" s="19"/>
+      <c r="AA12" s="19"/>
+    </row>
+    <row r="13" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -1637,13 +1657,14 @@
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
       <c r="I13" s="26"/>
-      <c r="K13" s="19"/>
+      <c r="K13" s="45"/>
       <c r="L13" s="19"/>
-      <c r="T13" s="19"/>
+      <c r="M13" s="19"/>
       <c r="U13" s="19"/>
-      <c r="Z13" s="19"/>
-    </row>
-    <row r="14" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V13" s="19"/>
+      <c r="AA13" s="19"/>
+    </row>
+    <row r="14" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -1653,13 +1674,14 @@
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
       <c r="I14" s="26"/>
-      <c r="K14" s="19"/>
+      <c r="K14" s="45"/>
       <c r="L14" s="19"/>
-      <c r="T14" s="19"/>
+      <c r="M14" s="19"/>
       <c r="U14" s="19"/>
-      <c r="Z14" s="19"/>
-    </row>
-    <row r="15" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V14" s="19"/>
+      <c r="AA14" s="19"/>
+    </row>
+    <row r="15" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -1669,13 +1691,14 @@
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
       <c r="I15" s="26"/>
-      <c r="K15" s="19"/>
+      <c r="K15" s="45"/>
       <c r="L15" s="19"/>
-      <c r="T15" s="19"/>
+      <c r="M15" s="19"/>
       <c r="U15" s="19"/>
-      <c r="Z15" s="19"/>
-    </row>
-    <row r="16" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V15" s="19"/>
+      <c r="AA15" s="19"/>
+    </row>
+    <row r="16" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -1685,13 +1708,14 @@
       <c r="G16" s="20"/>
       <c r="H16" s="20"/>
       <c r="I16" s="26"/>
-      <c r="K16" s="19"/>
+      <c r="K16" s="45"/>
       <c r="L16" s="19"/>
-      <c r="T16" s="19"/>
+      <c r="M16" s="19"/>
       <c r="U16" s="19"/>
-      <c r="Z16" s="19"/>
-    </row>
-    <row r="17" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V16" s="19"/>
+      <c r="AA16" s="19"/>
+    </row>
+    <row r="17" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -1701,13 +1725,14 @@
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
       <c r="I17" s="26"/>
-      <c r="K17" s="19"/>
+      <c r="K17" s="45"/>
       <c r="L17" s="19"/>
-      <c r="T17" s="19"/>
+      <c r="M17" s="19"/>
       <c r="U17" s="19"/>
-      <c r="Z17" s="19"/>
-    </row>
-    <row r="18" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V17" s="19"/>
+      <c r="AA17" s="19"/>
+    </row>
+    <row r="18" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -1717,13 +1742,14 @@
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
       <c r="I18" s="26"/>
-      <c r="K18" s="19"/>
+      <c r="K18" s="45"/>
       <c r="L18" s="19"/>
-      <c r="T18" s="19"/>
+      <c r="M18" s="19"/>
       <c r="U18" s="19"/>
-      <c r="Z18" s="19"/>
-    </row>
-    <row r="19" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V18" s="19"/>
+      <c r="AA18" s="19"/>
+    </row>
+    <row r="19" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
@@ -1733,13 +1759,14 @@
       <c r="G19" s="20"/>
       <c r="H19" s="20"/>
       <c r="I19" s="26"/>
-      <c r="K19" s="19"/>
+      <c r="K19" s="45"/>
       <c r="L19" s="19"/>
-      <c r="T19" s="19"/>
+      <c r="M19" s="19"/>
       <c r="U19" s="19"/>
-      <c r="Z19" s="19"/>
-    </row>
-    <row r="20" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V19" s="19"/>
+      <c r="AA19" s="19"/>
+    </row>
+    <row r="20" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
@@ -1749,13 +1776,14 @@
       <c r="G20" s="20"/>
       <c r="H20" s="20"/>
       <c r="I20" s="26"/>
-      <c r="K20" s="19"/>
+      <c r="K20" s="45"/>
       <c r="L20" s="19"/>
-      <c r="T20" s="19"/>
+      <c r="M20" s="19"/>
       <c r="U20" s="19"/>
-      <c r="Z20" s="19"/>
-    </row>
-    <row r="21" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V20" s="19"/>
+      <c r="AA20" s="19"/>
+    </row>
+    <row r="21" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
@@ -1765,13 +1793,14 @@
       <c r="G21" s="20"/>
       <c r="H21" s="20"/>
       <c r="I21" s="26"/>
-      <c r="K21" s="19"/>
+      <c r="K21" s="45"/>
       <c r="L21" s="19"/>
-      <c r="T21" s="19"/>
+      <c r="M21" s="19"/>
       <c r="U21" s="19"/>
-      <c r="Z21" s="19"/>
-    </row>
-    <row r="22" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V21" s="19"/>
+      <c r="AA21" s="19"/>
+    </row>
+    <row r="22" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
@@ -1781,13 +1810,14 @@
       <c r="G22" s="20"/>
       <c r="H22" s="20"/>
       <c r="I22" s="26"/>
-      <c r="K22" s="19"/>
+      <c r="K22" s="45"/>
       <c r="L22" s="19"/>
-      <c r="T22" s="19"/>
+      <c r="M22" s="19"/>
       <c r="U22" s="19"/>
-      <c r="Z22" s="19"/>
-    </row>
-    <row r="23" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V22" s="19"/>
+      <c r="AA22" s="19"/>
+    </row>
+    <row r="23" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
@@ -1797,13 +1827,14 @@
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
       <c r="I23" s="26"/>
-      <c r="K23" s="19"/>
+      <c r="K23" s="45"/>
       <c r="L23" s="19"/>
-      <c r="T23" s="19"/>
+      <c r="M23" s="19"/>
       <c r="U23" s="19"/>
-      <c r="Z23" s="19"/>
-    </row>
-    <row r="24" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V23" s="19"/>
+      <c r="AA23" s="19"/>
+    </row>
+    <row r="24" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
@@ -1813,13 +1844,14 @@
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
       <c r="I24" s="26"/>
-      <c r="K24" s="19"/>
+      <c r="K24" s="45"/>
       <c r="L24" s="19"/>
-      <c r="T24" s="19"/>
+      <c r="M24" s="19"/>
       <c r="U24" s="19"/>
-      <c r="Z24" s="19"/>
-    </row>
-    <row r="25" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V24" s="19"/>
+      <c r="AA24" s="19"/>
+    </row>
+    <row r="25" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
@@ -1829,13 +1861,14 @@
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
       <c r="I25" s="26"/>
-      <c r="K25" s="19"/>
+      <c r="K25" s="45"/>
       <c r="L25" s="19"/>
-      <c r="T25" s="19"/>
+      <c r="M25" s="19"/>
       <c r="U25" s="19"/>
-      <c r="Z25" s="19"/>
-    </row>
-    <row r="26" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V25" s="19"/>
+      <c r="AA25" s="19"/>
+    </row>
+    <row r="26" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
@@ -1845,13 +1878,14 @@
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
       <c r="I26" s="26"/>
-      <c r="K26" s="19"/>
+      <c r="K26" s="45"/>
       <c r="L26" s="19"/>
-      <c r="T26" s="19"/>
+      <c r="M26" s="19"/>
       <c r="U26" s="19"/>
-      <c r="Z26" s="19"/>
-    </row>
-    <row r="27" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V26" s="19"/>
+      <c r="AA26" s="19"/>
+    </row>
+    <row r="27" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
@@ -1861,13 +1895,14 @@
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
       <c r="I27" s="26"/>
-      <c r="K27" s="19"/>
+      <c r="K27" s="45"/>
       <c r="L27" s="19"/>
-      <c r="T27" s="19"/>
+      <c r="M27" s="19"/>
       <c r="U27" s="19"/>
-      <c r="Z27" s="19"/>
-    </row>
-    <row r="28" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V27" s="19"/>
+      <c r="AA27" s="19"/>
+    </row>
+    <row r="28" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
@@ -1877,13 +1912,14 @@
       <c r="G28" s="20"/>
       <c r="H28" s="20"/>
       <c r="I28" s="26"/>
-      <c r="K28" s="19"/>
+      <c r="K28" s="45"/>
       <c r="L28" s="19"/>
-      <c r="T28" s="19"/>
+      <c r="M28" s="19"/>
       <c r="U28" s="19"/>
-      <c r="Z28" s="19"/>
-    </row>
-    <row r="29" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V28" s="19"/>
+      <c r="AA28" s="19"/>
+    </row>
+    <row r="29" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="19"/>
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
@@ -1893,13 +1929,14 @@
       <c r="G29" s="20"/>
       <c r="H29" s="20"/>
       <c r="I29" s="26"/>
-      <c r="K29" s="19"/>
+      <c r="K29" s="45"/>
       <c r="L29" s="19"/>
-      <c r="T29" s="19"/>
+      <c r="M29" s="19"/>
       <c r="U29" s="19"/>
-      <c r="Z29" s="19"/>
-    </row>
-    <row r="30" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V29" s="19"/>
+      <c r="AA29" s="19"/>
+    </row>
+    <row r="30" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="19"/>
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
@@ -1909,13 +1946,14 @@
       <c r="G30" s="20"/>
       <c r="H30" s="20"/>
       <c r="I30" s="26"/>
-      <c r="K30" s="19"/>
+      <c r="K30" s="45"/>
       <c r="L30" s="19"/>
-      <c r="T30" s="19"/>
+      <c r="M30" s="19"/>
       <c r="U30" s="19"/>
-      <c r="Z30" s="19"/>
-    </row>
-    <row r="31" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V30" s="19"/>
+      <c r="AA30" s="19"/>
+    </row>
+    <row r="31" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="19"/>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
@@ -1925,13 +1963,14 @@
       <c r="G31" s="20"/>
       <c r="H31" s="20"/>
       <c r="I31" s="26"/>
-      <c r="K31" s="19"/>
+      <c r="K31" s="45"/>
       <c r="L31" s="19"/>
-      <c r="T31" s="19"/>
+      <c r="M31" s="19"/>
       <c r="U31" s="19"/>
-      <c r="Z31" s="19"/>
-    </row>
-    <row r="32" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V31" s="19"/>
+      <c r="AA31" s="19"/>
+    </row>
+    <row r="32" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="19"/>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
@@ -1941,13 +1980,14 @@
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
       <c r="I32" s="26"/>
-      <c r="K32" s="19"/>
+      <c r="K32" s="45"/>
       <c r="L32" s="19"/>
-      <c r="T32" s="19"/>
+      <c r="M32" s="19"/>
       <c r="U32" s="19"/>
-      <c r="Z32" s="19"/>
-    </row>
-    <row r="33" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V32" s="19"/>
+      <c r="AA32" s="19"/>
+    </row>
+    <row r="33" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="19"/>
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
@@ -1957,13 +1997,14 @@
       <c r="G33" s="20"/>
       <c r="H33" s="20"/>
       <c r="I33" s="26"/>
-      <c r="K33" s="19"/>
+      <c r="K33" s="45"/>
       <c r="L33" s="19"/>
-      <c r="T33" s="19"/>
+      <c r="M33" s="19"/>
       <c r="U33" s="19"/>
-      <c r="Z33" s="19"/>
-    </row>
-    <row r="34" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V33" s="19"/>
+      <c r="AA33" s="19"/>
+    </row>
+    <row r="34" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="19"/>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
@@ -1973,13 +2014,14 @@
       <c r="G34" s="20"/>
       <c r="H34" s="20"/>
       <c r="I34" s="26"/>
-      <c r="K34" s="19"/>
+      <c r="K34" s="45"/>
       <c r="L34" s="19"/>
-      <c r="T34" s="19"/>
+      <c r="M34" s="19"/>
       <c r="U34" s="19"/>
-      <c r="Z34" s="19"/>
-    </row>
-    <row r="35" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V34" s="19"/>
+      <c r="AA34" s="19"/>
+    </row>
+    <row r="35" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="19"/>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
@@ -1989,13 +2031,14 @@
       <c r="G35" s="20"/>
       <c r="H35" s="20"/>
       <c r="I35" s="26"/>
-      <c r="K35" s="19"/>
+      <c r="K35" s="45"/>
       <c r="L35" s="19"/>
-      <c r="T35" s="19"/>
+      <c r="M35" s="19"/>
       <c r="U35" s="19"/>
-      <c r="Z35" s="19"/>
-    </row>
-    <row r="36" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V35" s="19"/>
+      <c r="AA35" s="19"/>
+    </row>
+    <row r="36" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="19"/>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
@@ -2005,13 +2048,14 @@
       <c r="G36" s="20"/>
       <c r="H36" s="20"/>
       <c r="I36" s="26"/>
-      <c r="K36" s="19"/>
+      <c r="K36" s="45"/>
       <c r="L36" s="19"/>
-      <c r="T36" s="19"/>
+      <c r="M36" s="19"/>
       <c r="U36" s="19"/>
-      <c r="Z36" s="19"/>
-    </row>
-    <row r="37" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V36" s="19"/>
+      <c r="AA36" s="19"/>
+    </row>
+    <row r="37" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="19"/>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
@@ -2021,13 +2065,13 @@
       <c r="G37" s="20"/>
       <c r="H37" s="20"/>
       <c r="I37" s="26"/>
-      <c r="K37" s="19"/>
       <c r="L37" s="19"/>
-      <c r="T37" s="19"/>
+      <c r="M37" s="19"/>
       <c r="U37" s="19"/>
-      <c r="Z37" s="19"/>
-    </row>
-    <row r="38" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V37" s="19"/>
+      <c r="AA37" s="19"/>
+    </row>
+    <row r="38" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="19"/>
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
@@ -2037,13 +2081,13 @@
       <c r="G38" s="20"/>
       <c r="H38" s="20"/>
       <c r="I38" s="26"/>
-      <c r="K38" s="19"/>
       <c r="L38" s="19"/>
-      <c r="T38" s="19"/>
+      <c r="M38" s="19"/>
       <c r="U38" s="19"/>
-      <c r="Z38" s="19"/>
-    </row>
-    <row r="39" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V38" s="19"/>
+      <c r="AA38" s="19"/>
+    </row>
+    <row r="39" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="19"/>
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
@@ -2053,13 +2097,13 @@
       <c r="G39" s="20"/>
       <c r="H39" s="20"/>
       <c r="I39" s="26"/>
-      <c r="K39" s="19"/>
       <c r="L39" s="19"/>
-      <c r="T39" s="19"/>
+      <c r="M39" s="19"/>
       <c r="U39" s="19"/>
-      <c r="Z39" s="19"/>
-    </row>
-    <row r="40" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V39" s="19"/>
+      <c r="AA39" s="19"/>
+    </row>
+    <row r="40" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="19"/>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
@@ -2069,13 +2113,13 @@
       <c r="G40" s="20"/>
       <c r="H40" s="20"/>
       <c r="I40" s="26"/>
-      <c r="K40" s="19"/>
       <c r="L40" s="19"/>
-      <c r="T40" s="19"/>
+      <c r="M40" s="19"/>
       <c r="U40" s="19"/>
-      <c r="Z40" s="19"/>
-    </row>
-    <row r="41" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V40" s="19"/>
+      <c r="AA40" s="19"/>
+    </row>
+    <row r="41" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="19"/>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
@@ -2085,13 +2129,13 @@
       <c r="G41" s="20"/>
       <c r="H41" s="20"/>
       <c r="I41" s="26"/>
-      <c r="K41" s="19"/>
       <c r="L41" s="19"/>
-      <c r="T41" s="19"/>
+      <c r="M41" s="19"/>
       <c r="U41" s="19"/>
-      <c r="Z41" s="19"/>
-    </row>
-    <row r="42" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V41" s="19"/>
+      <c r="AA41" s="19"/>
+    </row>
+    <row r="42" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="19"/>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
@@ -2101,13 +2145,13 @@
       <c r="G42" s="20"/>
       <c r="H42" s="20"/>
       <c r="I42" s="26"/>
-      <c r="K42" s="19"/>
       <c r="L42" s="19"/>
-      <c r="T42" s="19"/>
+      <c r="M42" s="19"/>
       <c r="U42" s="19"/>
-      <c r="Z42" s="19"/>
-    </row>
-    <row r="43" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V42" s="19"/>
+      <c r="AA42" s="19"/>
+    </row>
+    <row r="43" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="19"/>
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
@@ -2117,13 +2161,13 @@
       <c r="G43" s="20"/>
       <c r="H43" s="20"/>
       <c r="I43" s="26"/>
-      <c r="K43" s="19"/>
       <c r="L43" s="19"/>
-      <c r="T43" s="19"/>
+      <c r="M43" s="19"/>
       <c r="U43" s="19"/>
-      <c r="Z43" s="19"/>
-    </row>
-    <row r="44" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V43" s="19"/>
+      <c r="AA43" s="19"/>
+    </row>
+    <row r="44" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="19"/>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
@@ -2133,13 +2177,13 @@
       <c r="G44" s="20"/>
       <c r="H44" s="20"/>
       <c r="I44" s="26"/>
-      <c r="K44" s="19"/>
       <c r="L44" s="19"/>
-      <c r="T44" s="19"/>
+      <c r="M44" s="19"/>
       <c r="U44" s="19"/>
-      <c r="Z44" s="19"/>
-    </row>
-    <row r="45" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V44" s="19"/>
+      <c r="AA44" s="19"/>
+    </row>
+    <row r="45" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="19"/>
       <c r="B45" s="19"/>
       <c r="C45" s="19"/>
@@ -2149,13 +2193,13 @@
       <c r="G45" s="20"/>
       <c r="H45" s="20"/>
       <c r="I45" s="26"/>
-      <c r="K45" s="19"/>
       <c r="L45" s="19"/>
-      <c r="T45" s="19"/>
+      <c r="M45" s="19"/>
       <c r="U45" s="19"/>
-      <c r="Z45" s="19"/>
-    </row>
-    <row r="46" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V45" s="19"/>
+      <c r="AA45" s="19"/>
+    </row>
+    <row r="46" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="19"/>
       <c r="B46" s="19"/>
       <c r="C46" s="19"/>
@@ -2165,13 +2209,13 @@
       <c r="G46" s="20"/>
       <c r="H46" s="20"/>
       <c r="I46" s="26"/>
-      <c r="K46" s="19"/>
       <c r="L46" s="19"/>
-      <c r="T46" s="19"/>
+      <c r="M46" s="19"/>
       <c r="U46" s="19"/>
-      <c r="Z46" s="19"/>
-    </row>
-    <row r="47" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V46" s="19"/>
+      <c r="AA46" s="19"/>
+    </row>
+    <row r="47" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="19"/>
       <c r="B47" s="19"/>
       <c r="C47" s="19"/>
@@ -2181,13 +2225,13 @@
       <c r="G47" s="20"/>
       <c r="H47" s="20"/>
       <c r="I47" s="26"/>
-      <c r="K47" s="19"/>
       <c r="L47" s="19"/>
-      <c r="T47" s="19"/>
+      <c r="M47" s="19"/>
       <c r="U47" s="19"/>
-      <c r="Z47" s="19"/>
-    </row>
-    <row r="48" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V47" s="19"/>
+      <c r="AA47" s="19"/>
+    </row>
+    <row r="48" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="19"/>
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
@@ -2197,13 +2241,13 @@
       <c r="G48" s="20"/>
       <c r="H48" s="20"/>
       <c r="I48" s="26"/>
-      <c r="K48" s="19"/>
       <c r="L48" s="19"/>
-      <c r="T48" s="19"/>
+      <c r="M48" s="19"/>
       <c r="U48" s="19"/>
-      <c r="Z48" s="19"/>
-    </row>
-    <row r="49" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V48" s="19"/>
+      <c r="AA48" s="19"/>
+    </row>
+    <row r="49" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="19"/>
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
@@ -2213,13 +2257,13 @@
       <c r="G49" s="20"/>
       <c r="H49" s="20"/>
       <c r="I49" s="26"/>
-      <c r="K49" s="19"/>
       <c r="L49" s="19"/>
-      <c r="T49" s="19"/>
+      <c r="M49" s="19"/>
       <c r="U49" s="19"/>
-      <c r="Z49" s="19"/>
-    </row>
-    <row r="50" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V49" s="19"/>
+      <c r="AA49" s="19"/>
+    </row>
+    <row r="50" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="19"/>
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
@@ -2229,13 +2273,13 @@
       <c r="G50" s="20"/>
       <c r="H50" s="20"/>
       <c r="I50" s="26"/>
-      <c r="K50" s="19"/>
       <c r="L50" s="19"/>
-      <c r="T50" s="19"/>
+      <c r="M50" s="19"/>
       <c r="U50" s="19"/>
-      <c r="Z50" s="19"/>
-    </row>
-    <row r="51" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V50" s="19"/>
+      <c r="AA50" s="19"/>
+    </row>
+    <row r="51" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="19"/>
       <c r="B51" s="19"/>
       <c r="C51" s="19"/>
@@ -2245,13 +2289,13 @@
       <c r="G51" s="20"/>
       <c r="H51" s="20"/>
       <c r="I51" s="26"/>
-      <c r="K51" s="19"/>
       <c r="L51" s="19"/>
-      <c r="T51" s="19"/>
+      <c r="M51" s="19"/>
       <c r="U51" s="19"/>
-      <c r="Z51" s="19"/>
-    </row>
-    <row r="52" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V51" s="19"/>
+      <c r="AA51" s="19"/>
+    </row>
+    <row r="52" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="19"/>
       <c r="B52" s="19"/>
       <c r="C52" s="19"/>
@@ -2261,13 +2305,13 @@
       <c r="G52" s="20"/>
       <c r="H52" s="20"/>
       <c r="I52" s="26"/>
-      <c r="K52" s="19"/>
       <c r="L52" s="19"/>
-      <c r="T52" s="19"/>
+      <c r="M52" s="19"/>
       <c r="U52" s="19"/>
-      <c r="Z52" s="19"/>
-    </row>
-    <row r="53" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V52" s="19"/>
+      <c r="AA52" s="19"/>
+    </row>
+    <row r="53" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="19"/>
       <c r="B53" s="19"/>
       <c r="C53" s="19"/>
@@ -2277,13 +2321,13 @@
       <c r="G53" s="20"/>
       <c r="H53" s="20"/>
       <c r="I53" s="26"/>
-      <c r="K53" s="19"/>
       <c r="L53" s="19"/>
-      <c r="T53" s="19"/>
+      <c r="M53" s="19"/>
       <c r="U53" s="19"/>
-      <c r="Z53" s="19"/>
-    </row>
-    <row r="54" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V53" s="19"/>
+      <c r="AA53" s="19"/>
+    </row>
+    <row r="54" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="19"/>
       <c r="B54" s="19"/>
       <c r="C54" s="19"/>
@@ -2293,13 +2337,13 @@
       <c r="G54" s="20"/>
       <c r="H54" s="20"/>
       <c r="I54" s="26"/>
-      <c r="K54" s="19"/>
       <c r="L54" s="19"/>
-      <c r="T54" s="19"/>
+      <c r="M54" s="19"/>
       <c r="U54" s="19"/>
-      <c r="Z54" s="19"/>
-    </row>
-    <row r="55" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V54" s="19"/>
+      <c r="AA54" s="19"/>
+    </row>
+    <row r="55" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="19"/>
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
@@ -2309,13 +2353,13 @@
       <c r="G55" s="20"/>
       <c r="H55" s="20"/>
       <c r="I55" s="26"/>
-      <c r="K55" s="19"/>
       <c r="L55" s="19"/>
-      <c r="T55" s="19"/>
+      <c r="M55" s="19"/>
       <c r="U55" s="19"/>
-      <c r="Z55" s="19"/>
-    </row>
-    <row r="56" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V55" s="19"/>
+      <c r="AA55" s="19"/>
+    </row>
+    <row r="56" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="19"/>
       <c r="B56" s="19"/>
       <c r="C56" s="19"/>
@@ -2325,13 +2369,13 @@
       <c r="G56" s="20"/>
       <c r="H56" s="20"/>
       <c r="I56" s="26"/>
-      <c r="K56" s="19"/>
       <c r="L56" s="19"/>
-      <c r="T56" s="19"/>
+      <c r="M56" s="19"/>
       <c r="U56" s="19"/>
-      <c r="Z56" s="19"/>
-    </row>
-    <row r="57" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V56" s="19"/>
+      <c r="AA56" s="19"/>
+    </row>
+    <row r="57" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="19"/>
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
@@ -2341,13 +2385,13 @@
       <c r="G57" s="20"/>
       <c r="H57" s="20"/>
       <c r="I57" s="26"/>
-      <c r="K57" s="19"/>
       <c r="L57" s="19"/>
-      <c r="T57" s="19"/>
+      <c r="M57" s="19"/>
       <c r="U57" s="19"/>
-      <c r="Z57" s="19"/>
-    </row>
-    <row r="58" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V57" s="19"/>
+      <c r="AA57" s="19"/>
+    </row>
+    <row r="58" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="19"/>
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
@@ -2357,13 +2401,13 @@
       <c r="G58" s="20"/>
       <c r="H58" s="20"/>
       <c r="I58" s="26"/>
-      <c r="K58" s="19"/>
       <c r="L58" s="19"/>
-      <c r="T58" s="19"/>
+      <c r="M58" s="19"/>
       <c r="U58" s="19"/>
-      <c r="Z58" s="19"/>
-    </row>
-    <row r="59" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V58" s="19"/>
+      <c r="AA58" s="19"/>
+    </row>
+    <row r="59" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="19"/>
       <c r="B59" s="19"/>
       <c r="C59" s="19"/>
@@ -2373,13 +2417,13 @@
       <c r="G59" s="20"/>
       <c r="H59" s="20"/>
       <c r="I59" s="26"/>
-      <c r="K59" s="19"/>
       <c r="L59" s="19"/>
-      <c r="T59" s="19"/>
+      <c r="M59" s="19"/>
       <c r="U59" s="19"/>
-      <c r="Z59" s="19"/>
-    </row>
-    <row r="60" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V59" s="19"/>
+      <c r="AA59" s="19"/>
+    </row>
+    <row r="60" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="19"/>
       <c r="B60" s="19"/>
       <c r="C60" s="19"/>
@@ -2389,13 +2433,13 @@
       <c r="G60" s="20"/>
       <c r="H60" s="20"/>
       <c r="I60" s="26"/>
-      <c r="K60" s="19"/>
       <c r="L60" s="19"/>
-      <c r="T60" s="19"/>
+      <c r="M60" s="19"/>
       <c r="U60" s="19"/>
-      <c r="Z60" s="19"/>
-    </row>
-    <row r="61" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V60" s="19"/>
+      <c r="AA60" s="19"/>
+    </row>
+    <row r="61" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="19"/>
       <c r="B61" s="19"/>
       <c r="C61" s="19"/>
@@ -2405,13 +2449,13 @@
       <c r="G61" s="20"/>
       <c r="H61" s="20"/>
       <c r="I61" s="26"/>
-      <c r="K61" s="19"/>
       <c r="L61" s="19"/>
-      <c r="T61" s="19"/>
+      <c r="M61" s="19"/>
       <c r="U61" s="19"/>
-      <c r="Z61" s="19"/>
-    </row>
-    <row r="62" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V61" s="19"/>
+      <c r="AA61" s="19"/>
+    </row>
+    <row r="62" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="19"/>
       <c r="B62" s="19"/>
       <c r="C62" s="19"/>
@@ -2421,13 +2465,13 @@
       <c r="G62" s="20"/>
       <c r="H62" s="20"/>
       <c r="I62" s="26"/>
-      <c r="K62" s="19"/>
       <c r="L62" s="19"/>
-      <c r="T62" s="19"/>
+      <c r="M62" s="19"/>
       <c r="U62" s="19"/>
-      <c r="Z62" s="19"/>
-    </row>
-    <row r="63" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V62" s="19"/>
+      <c r="AA62" s="19"/>
+    </row>
+    <row r="63" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="19"/>
       <c r="B63" s="19"/>
       <c r="C63" s="19"/>
@@ -2437,13 +2481,13 @@
       <c r="G63" s="20"/>
       <c r="H63" s="20"/>
       <c r="I63" s="26"/>
-      <c r="K63" s="19"/>
       <c r="L63" s="19"/>
-      <c r="T63" s="19"/>
+      <c r="M63" s="19"/>
       <c r="U63" s="19"/>
-      <c r="Z63" s="19"/>
-    </row>
-    <row r="64" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V63" s="19"/>
+      <c r="AA63" s="19"/>
+    </row>
+    <row r="64" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="19"/>
       <c r="B64" s="19"/>
       <c r="C64" s="19"/>
@@ -2453,13 +2497,13 @@
       <c r="G64" s="20"/>
       <c r="H64" s="20"/>
       <c r="I64" s="26"/>
-      <c r="K64" s="19"/>
       <c r="L64" s="19"/>
-      <c r="T64" s="19"/>
+      <c r="M64" s="19"/>
       <c r="U64" s="19"/>
-      <c r="Z64" s="19"/>
-    </row>
-    <row r="65" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V64" s="19"/>
+      <c r="AA64" s="19"/>
+    </row>
+    <row r="65" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="19"/>
       <c r="B65" s="19"/>
       <c r="C65" s="19"/>
@@ -2469,13 +2513,13 @@
       <c r="G65" s="20"/>
       <c r="H65" s="20"/>
       <c r="I65" s="26"/>
-      <c r="K65" s="19"/>
       <c r="L65" s="19"/>
-      <c r="T65" s="19"/>
+      <c r="M65" s="19"/>
       <c r="U65" s="19"/>
-      <c r="Z65" s="19"/>
-    </row>
-    <row r="66" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V65" s="19"/>
+      <c r="AA65" s="19"/>
+    </row>
+    <row r="66" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="19"/>
       <c r="B66" s="19"/>
       <c r="C66" s="19"/>
@@ -2485,13 +2529,13 @@
       <c r="G66" s="20"/>
       <c r="H66" s="20"/>
       <c r="I66" s="26"/>
-      <c r="K66" s="19"/>
       <c r="L66" s="19"/>
-      <c r="T66" s="19"/>
+      <c r="M66" s="19"/>
       <c r="U66" s="19"/>
-      <c r="Z66" s="19"/>
-    </row>
-    <row r="67" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V66" s="19"/>
+      <c r="AA66" s="19"/>
+    </row>
+    <row r="67" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="19"/>
       <c r="B67" s="19"/>
       <c r="C67" s="19"/>
@@ -2501,13 +2545,13 @@
       <c r="G67" s="20"/>
       <c r="H67" s="20"/>
       <c r="I67" s="26"/>
-      <c r="K67" s="19"/>
       <c r="L67" s="19"/>
-      <c r="T67" s="19"/>
+      <c r="M67" s="19"/>
       <c r="U67" s="19"/>
-      <c r="Z67" s="19"/>
-    </row>
-    <row r="68" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V67" s="19"/>
+      <c r="AA67" s="19"/>
+    </row>
+    <row r="68" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="19"/>
       <c r="B68" s="19"/>
       <c r="C68" s="19"/>
@@ -2517,13 +2561,13 @@
       <c r="G68" s="20"/>
       <c r="H68" s="20"/>
       <c r="I68" s="26"/>
-      <c r="K68" s="19"/>
       <c r="L68" s="19"/>
-      <c r="T68" s="19"/>
+      <c r="M68" s="19"/>
       <c r="U68" s="19"/>
-      <c r="Z68" s="19"/>
-    </row>
-    <row r="69" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V68" s="19"/>
+      <c r="AA68" s="19"/>
+    </row>
+    <row r="69" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="19"/>
       <c r="B69" s="19"/>
       <c r="C69" s="19"/>
@@ -2533,13 +2577,13 @@
       <c r="G69" s="20"/>
       <c r="H69" s="20"/>
       <c r="I69" s="26"/>
-      <c r="K69" s="19"/>
       <c r="L69" s="19"/>
-      <c r="T69" s="19"/>
+      <c r="M69" s="19"/>
       <c r="U69" s="19"/>
-      <c r="Z69" s="19"/>
-    </row>
-    <row r="70" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V69" s="19"/>
+      <c r="AA69" s="19"/>
+    </row>
+    <row r="70" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="19"/>
       <c r="B70" s="19"/>
       <c r="C70" s="19"/>
@@ -2549,13 +2593,13 @@
       <c r="G70" s="20"/>
       <c r="H70" s="20"/>
       <c r="I70" s="26"/>
-      <c r="K70" s="19"/>
       <c r="L70" s="19"/>
-      <c r="T70" s="19"/>
+      <c r="M70" s="19"/>
       <c r="U70" s="19"/>
-      <c r="Z70" s="19"/>
-    </row>
-    <row r="71" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V70" s="19"/>
+      <c r="AA70" s="19"/>
+    </row>
+    <row r="71" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="19"/>
       <c r="B71" s="19"/>
       <c r="C71" s="19"/>
@@ -2565,13 +2609,13 @@
       <c r="G71" s="20"/>
       <c r="H71" s="20"/>
       <c r="I71" s="26"/>
-      <c r="K71" s="19"/>
       <c r="L71" s="19"/>
-      <c r="T71" s="19"/>
+      <c r="M71" s="19"/>
       <c r="U71" s="19"/>
-      <c r="Z71" s="19"/>
-    </row>
-    <row r="72" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V71" s="19"/>
+      <c r="AA71" s="19"/>
+    </row>
+    <row r="72" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="19"/>
       <c r="B72" s="19"/>
       <c r="C72" s="19"/>
@@ -2581,13 +2625,13 @@
       <c r="G72" s="20"/>
       <c r="H72" s="20"/>
       <c r="I72" s="26"/>
-      <c r="K72" s="19"/>
       <c r="L72" s="19"/>
-      <c r="T72" s="19"/>
+      <c r="M72" s="19"/>
       <c r="U72" s="19"/>
-      <c r="Z72" s="19"/>
-    </row>
-    <row r="73" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V72" s="19"/>
+      <c r="AA72" s="19"/>
+    </row>
+    <row r="73" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="19"/>
       <c r="B73" s="19"/>
       <c r="C73" s="19"/>
@@ -2597,13 +2641,13 @@
       <c r="G73" s="20"/>
       <c r="H73" s="20"/>
       <c r="I73" s="26"/>
-      <c r="K73" s="19"/>
       <c r="L73" s="19"/>
-      <c r="T73" s="19"/>
+      <c r="M73" s="19"/>
       <c r="U73" s="19"/>
-      <c r="Z73" s="19"/>
-    </row>
-    <row r="74" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V73" s="19"/>
+      <c r="AA73" s="19"/>
+    </row>
+    <row r="74" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="19"/>
       <c r="B74" s="19"/>
       <c r="C74" s="19"/>
@@ -2613,13 +2657,13 @@
       <c r="G74" s="20"/>
       <c r="H74" s="20"/>
       <c r="I74" s="26"/>
-      <c r="K74" s="19"/>
       <c r="L74" s="19"/>
-      <c r="T74" s="19"/>
+      <c r="M74" s="19"/>
       <c r="U74" s="19"/>
-      <c r="Z74" s="19"/>
-    </row>
-    <row r="75" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V74" s="19"/>
+      <c r="AA74" s="19"/>
+    </row>
+    <row r="75" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="19"/>
       <c r="B75" s="19"/>
       <c r="C75" s="19"/>
@@ -2629,13 +2673,13 @@
       <c r="G75" s="20"/>
       <c r="H75" s="20"/>
       <c r="I75" s="26"/>
-      <c r="K75" s="19"/>
       <c r="L75" s="19"/>
-      <c r="T75" s="19"/>
+      <c r="M75" s="19"/>
       <c r="U75" s="19"/>
-      <c r="Z75" s="19"/>
-    </row>
-    <row r="76" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V75" s="19"/>
+      <c r="AA75" s="19"/>
+    </row>
+    <row r="76" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="19"/>
       <c r="B76" s="19"/>
       <c r="C76" s="19"/>
@@ -2645,13 +2689,13 @@
       <c r="G76" s="20"/>
       <c r="H76" s="20"/>
       <c r="I76" s="26"/>
-      <c r="K76" s="19"/>
       <c r="L76" s="19"/>
-      <c r="T76" s="19"/>
+      <c r="M76" s="19"/>
       <c r="U76" s="19"/>
-      <c r="Z76" s="19"/>
-    </row>
-    <row r="77" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V76" s="19"/>
+      <c r="AA76" s="19"/>
+    </row>
+    <row r="77" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="19"/>
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
@@ -2661,13 +2705,13 @@
       <c r="G77" s="20"/>
       <c r="H77" s="20"/>
       <c r="I77" s="26"/>
-      <c r="K77" s="19"/>
       <c r="L77" s="19"/>
-      <c r="T77" s="19"/>
+      <c r="M77" s="19"/>
       <c r="U77" s="19"/>
-      <c r="Z77" s="19"/>
-    </row>
-    <row r="78" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V77" s="19"/>
+      <c r="AA77" s="19"/>
+    </row>
+    <row r="78" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="19"/>
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
@@ -2677,13 +2721,13 @@
       <c r="G78" s="20"/>
       <c r="H78" s="20"/>
       <c r="I78" s="26"/>
-      <c r="K78" s="19"/>
       <c r="L78" s="19"/>
-      <c r="T78" s="19"/>
+      <c r="M78" s="19"/>
       <c r="U78" s="19"/>
-      <c r="Z78" s="19"/>
-    </row>
-    <row r="79" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V78" s="19"/>
+      <c r="AA78" s="19"/>
+    </row>
+    <row r="79" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="19"/>
       <c r="B79" s="19"/>
       <c r="C79" s="19"/>
@@ -2693,13 +2737,13 @@
       <c r="G79" s="20"/>
       <c r="H79" s="20"/>
       <c r="I79" s="26"/>
-      <c r="K79" s="19"/>
       <c r="L79" s="19"/>
-      <c r="T79" s="19"/>
+      <c r="M79" s="19"/>
       <c r="U79" s="19"/>
-      <c r="Z79" s="19"/>
-    </row>
-    <row r="80" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V79" s="19"/>
+      <c r="AA79" s="19"/>
+    </row>
+    <row r="80" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="19"/>
       <c r="B80" s="19"/>
       <c r="C80" s="19"/>
@@ -2709,13 +2753,13 @@
       <c r="G80" s="20"/>
       <c r="H80" s="20"/>
       <c r="I80" s="26"/>
-      <c r="K80" s="19"/>
       <c r="L80" s="19"/>
-      <c r="T80" s="19"/>
+      <c r="M80" s="19"/>
       <c r="U80" s="19"/>
-      <c r="Z80" s="19"/>
-    </row>
-    <row r="81" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V80" s="19"/>
+      <c r="AA80" s="19"/>
+    </row>
+    <row r="81" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="19"/>
       <c r="B81" s="19"/>
       <c r="C81" s="19"/>
@@ -2725,13 +2769,13 @@
       <c r="G81" s="20"/>
       <c r="H81" s="20"/>
       <c r="I81" s="26"/>
-      <c r="K81" s="19"/>
       <c r="L81" s="19"/>
-      <c r="T81" s="19"/>
+      <c r="M81" s="19"/>
       <c r="U81" s="19"/>
-      <c r="Z81" s="19"/>
-    </row>
-    <row r="82" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V81" s="19"/>
+      <c r="AA81" s="19"/>
+    </row>
+    <row r="82" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="19"/>
       <c r="B82" s="19"/>
       <c r="C82" s="19"/>
@@ -2741,13 +2785,13 @@
       <c r="G82" s="20"/>
       <c r="H82" s="20"/>
       <c r="I82" s="26"/>
-      <c r="K82" s="19"/>
       <c r="L82" s="19"/>
-      <c r="T82" s="19"/>
+      <c r="M82" s="19"/>
       <c r="U82" s="19"/>
-      <c r="Z82" s="19"/>
-    </row>
-    <row r="83" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V82" s="19"/>
+      <c r="AA82" s="19"/>
+    </row>
+    <row r="83" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="19"/>
       <c r="B83" s="19"/>
       <c r="C83" s="19"/>
@@ -2757,13 +2801,13 @@
       <c r="G83" s="20"/>
       <c r="H83" s="20"/>
       <c r="I83" s="26"/>
-      <c r="K83" s="19"/>
       <c r="L83" s="19"/>
-      <c r="T83" s="19"/>
+      <c r="M83" s="19"/>
       <c r="U83" s="19"/>
-      <c r="Z83" s="19"/>
-    </row>
-    <row r="84" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V83" s="19"/>
+      <c r="AA83" s="19"/>
+    </row>
+    <row r="84" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="19"/>
       <c r="B84" s="19"/>
       <c r="C84" s="19"/>
@@ -2773,13 +2817,13 @@
       <c r="G84" s="20"/>
       <c r="H84" s="20"/>
       <c r="I84" s="26"/>
-      <c r="K84" s="19"/>
       <c r="L84" s="19"/>
-      <c r="T84" s="19"/>
+      <c r="M84" s="19"/>
       <c r="U84" s="19"/>
-      <c r="Z84" s="19"/>
-    </row>
-    <row r="85" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V84" s="19"/>
+      <c r="AA84" s="19"/>
+    </row>
+    <row r="85" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="19"/>
       <c r="B85" s="19"/>
       <c r="C85" s="19"/>
@@ -2789,13 +2833,13 @@
       <c r="G85" s="20"/>
       <c r="H85" s="20"/>
       <c r="I85" s="26"/>
-      <c r="K85" s="19"/>
       <c r="L85" s="19"/>
-      <c r="T85" s="19"/>
+      <c r="M85" s="19"/>
       <c r="U85" s="19"/>
-      <c r="Z85" s="19"/>
-    </row>
-    <row r="86" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V85" s="19"/>
+      <c r="AA85" s="19"/>
+    </row>
+    <row r="86" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="19"/>
       <c r="B86" s="19"/>
       <c r="C86" s="19"/>
@@ -2805,13 +2849,13 @@
       <c r="G86" s="20"/>
       <c r="H86" s="20"/>
       <c r="I86" s="26"/>
-      <c r="K86" s="19"/>
       <c r="L86" s="19"/>
-      <c r="T86" s="19"/>
+      <c r="M86" s="19"/>
       <c r="U86" s="19"/>
-      <c r="Z86" s="19"/>
-    </row>
-    <row r="87" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V86" s="19"/>
+      <c r="AA86" s="19"/>
+    </row>
+    <row r="87" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="19"/>
       <c r="B87" s="19"/>
       <c r="C87" s="19"/>
@@ -2821,13 +2865,13 @@
       <c r="G87" s="20"/>
       <c r="H87" s="20"/>
       <c r="I87" s="26"/>
-      <c r="K87" s="19"/>
       <c r="L87" s="19"/>
-      <c r="T87" s="19"/>
+      <c r="M87" s="19"/>
       <c r="U87" s="19"/>
-      <c r="Z87" s="19"/>
-    </row>
-    <row r="88" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V87" s="19"/>
+      <c r="AA87" s="19"/>
+    </row>
+    <row r="88" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="19"/>
       <c r="B88" s="19"/>
       <c r="C88" s="19"/>
@@ -2837,13 +2881,13 @@
       <c r="G88" s="20"/>
       <c r="H88" s="20"/>
       <c r="I88" s="26"/>
-      <c r="K88" s="19"/>
       <c r="L88" s="19"/>
-      <c r="T88" s="19"/>
+      <c r="M88" s="19"/>
       <c r="U88" s="19"/>
-      <c r="Z88" s="19"/>
-    </row>
-    <row r="89" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V88" s="19"/>
+      <c r="AA88" s="19"/>
+    </row>
+    <row r="89" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="19"/>
       <c r="B89" s="19"/>
       <c r="C89" s="19"/>
@@ -2853,23 +2897,28 @@
       <c r="G89" s="20"/>
       <c r="H89" s="20"/>
       <c r="I89" s="26"/>
-      <c r="K89" s="19"/>
       <c r="L89" s="19"/>
-      <c r="T89" s="19"/>
+      <c r="M89" s="19"/>
       <c r="U89" s="19"/>
-      <c r="Z89" s="19"/>
-    </row>
-    <row r="90" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="V89" s="19"/>
+      <c r="AA89" s="19"/>
+    </row>
+    <row r="90" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="J1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="W1:X1"/>
   </mergeCells>
+  <conditionalFormatting sqref="K2">
+    <cfRule type="cellIs" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -2996,90 +3045,90 @@
       <c r="AV1" s="8"/>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="36" t="s">
+      <c r="D2" s="37"/>
+      <c r="E2" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38" t="s">
+      <c r="F2" s="39"/>
+      <c r="G2" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="39"/>
-      <c r="I2" s="36" t="s">
+      <c r="H2" s="37"/>
+      <c r="I2" s="38" t="s">
         <v>44</v>
       </c>
       <c r="J2" s="40"/>
       <c r="K2" s="40"/>
       <c r="L2" s="40"/>
       <c r="M2" s="40"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="38" t="s">
+      <c r="N2" s="39"/>
+      <c r="O2" s="36" t="s">
         <v>45</v>
       </c>
       <c r="P2" s="41"/>
       <c r="Q2" s="41"/>
       <c r="R2" s="41"/>
       <c r="S2" s="41"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="36" t="s">
+      <c r="T2" s="37"/>
+      <c r="U2" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="V2" s="37"/>
-      <c r="W2" s="38" t="s">
+      <c r="V2" s="39"/>
+      <c r="W2" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="36" t="s">
+      <c r="X2" s="37"/>
+      <c r="Y2" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="38" t="s">
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="AB2" s="39"/>
-      <c r="AC2" s="36" t="s">
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="38" t="s">
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="AF2" s="39"/>
-      <c r="AG2" s="36" t="s">
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="38" t="s">
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="AJ2" s="39"/>
-      <c r="AK2" s="36" t="s">
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="38" t="s">
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="AN2" s="39"/>
-      <c r="AO2" s="36" t="s">
+      <c r="AN2" s="37"/>
+      <c r="AO2" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="AP2" s="37"/>
-      <c r="AQ2" s="38" t="s">
+      <c r="AP2" s="39"/>
+      <c r="AQ2" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="AR2" s="39"/>
-      <c r="AS2" s="36" t="s">
+      <c r="AR2" s="37"/>
+      <c r="AS2" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="AT2" s="37"/>
-      <c r="AU2" s="38" t="s">
+      <c r="AT2" s="39"/>
+      <c r="AU2" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="AV2" s="39"/>
+      <c r="AV2" s="37"/>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -6721,16 +6770,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="O2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="AO2:AP2"/>
     <mergeCell ref="AQ2:AR2"/>
     <mergeCell ref="AS2:AT2"/>
@@ -6740,6 +6779,16 @@
     <mergeCell ref="AI2:AJ2"/>
     <mergeCell ref="AK2:AL2"/>
     <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="O2:T2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <legacyDrawing r:id="rId1"/>
@@ -6838,57 +6887,57 @@
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="38" t="s">
         <v>88</v>
       </c>
       <c r="I2" s="40"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="43" t="s">
+      <c r="J2" s="39"/>
+      <c r="K2" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="L2" s="42" t="s">
+      <c r="L2" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="M2" s="43" t="s">
+      <c r="M2" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="N2" s="42" t="s">
+      <c r="N2" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="43" t="s">
+      <c r="O2" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="P2" s="42" t="s">
+      <c r="P2" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="Q2" s="43" t="s">
+      <c r="Q2" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="R2" s="42" t="s">
+      <c r="R2" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="S2" s="43" t="s">
+      <c r="S2" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="T2" s="42" t="s">
+      <c r="T2" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="U2" s="43" t="s">
+      <c r="U2" s="42" t="s">
         <v>99</v>
       </c>
     </row>
@@ -8758,16 +8807,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C2"/>
-    <mergeCell ref="D2"/>
-    <mergeCell ref="E2"/>
-    <mergeCell ref="F2"/>
-    <mergeCell ref="G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2"/>
-    <mergeCell ref="L2"/>
-    <mergeCell ref="M2"/>
-    <mergeCell ref="N2"/>
     <mergeCell ref="T2"/>
     <mergeCell ref="U2"/>
     <mergeCell ref="O2"/>
@@ -8775,6 +8814,16 @@
     <mergeCell ref="Q2"/>
     <mergeCell ref="R2"/>
     <mergeCell ref="S2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2"/>
+    <mergeCell ref="L2"/>
+    <mergeCell ref="M2"/>
+    <mergeCell ref="N2"/>
+    <mergeCell ref="C2"/>
+    <mergeCell ref="D2"/>
+    <mergeCell ref="E2"/>
+    <mergeCell ref="F2"/>
+    <mergeCell ref="G2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <legacyDrawing r:id="rId1"/>
@@ -8811,10 +8860,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="39"/>
+      <c r="D2" s="37"/>
       <c r="E2" s="32" t="s">
         <v>107</v>
       </c>

--- a/OperadoraNominas/bin/Debug/Archivos/timbrado_idn_s.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/timbrado_idn_s.xlsx
@@ -24,10 +24,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Omar</author>
+    <author>Sys</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -101,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="U1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -126,7 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0">
+    <comment ref="Y1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -144,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0">
+    <comment ref="AA1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -166,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0">
+    <comment ref="AC1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -282,7 +282,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="111">
   <si>
     <t>No. Empleado</t>
   </si>
@@ -612,6 +612,9 @@
   </si>
   <si>
     <t>Código P.</t>
+  </si>
+  <si>
+    <t>Régimen Fiscal</t>
   </si>
 </sst>
 </file>
@@ -952,7 +955,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -990,13 +993,18 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1023,8 +1031,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda 2" xfId="1"/>
@@ -1329,13 +1335,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:AD90"/>
+  <dimension ref="A1:AE90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1343,32 +1349,37 @@
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="35.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="41" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" customWidth="1"/>
     <col min="11" max="11" width="14.7109375" style="18" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="24.140625" customWidth="1"/>
     <col min="13" max="13" width="20.7109375" customWidth="1"/>
-    <col min="14" max="15" width="9.7109375" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" customWidth="1"/>
+    <col min="15" max="15" width="22.5703125" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" customWidth="1"/>
     <col min="17" max="17" width="5.7109375" customWidth="1"/>
-    <col min="18" max="18" width="8.7109375" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" customWidth="1"/>
     <col min="19" max="19" width="6.7109375" customWidth="1"/>
-    <col min="20" max="20" width="15.7109375" customWidth="1"/>
+    <col min="20" max="20" width="21.140625" customWidth="1"/>
     <col min="21" max="21" width="17.7109375" customWidth="1"/>
     <col min="22" max="22" width="14.7109375" customWidth="1"/>
-    <col min="23" max="26" width="9.7109375" customWidth="1"/>
+    <col min="23" max="23" width="22.7109375" customWidth="1"/>
+    <col min="24" max="24" width="42" customWidth="1"/>
+    <col min="25" max="26" width="9.7109375" customWidth="1"/>
     <col min="27" max="27" width="5.7109375" customWidth="1"/>
     <col min="28" max="28" width="19.7109375" customWidth="1"/>
     <col min="29" max="29" width="16.7109375" customWidth="1"/>
     <col min="30" max="30" width="15.7109375" customWidth="1"/>
-    <col min="31" max="32" width="9.140625" customWidth="1"/>
+    <col min="31" max="31" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" s="18" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1384,68 +1395,72 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="37"/>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="L1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="P1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="34"/>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="37"/>
+      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="S1" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="34"/>
-      <c r="S1" s="33" t="s">
+      <c r="T1" s="37"/>
+      <c r="U1" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="34"/>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="37"/>
+      <c r="W1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="33" t="s">
+      <c r="Y1" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="33" t="s">
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="33" t="s">
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" s="18" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -1455,14 +1470,14 @@
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
       <c r="I2" s="26"/>
-      <c r="K2" s="44"/>
+      <c r="K2" s="34"/>
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
       <c r="U2" s="19"/>
       <c r="V2" s="19"/>
       <c r="AA2" s="19"/>
     </row>
-    <row r="3" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -1473,7 +1488,7 @@
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
       <c r="J3" s="19"/>
-      <c r="K3" s="45"/>
+      <c r="K3" s="35"/>
       <c r="L3" s="19"/>
       <c r="M3" s="19"/>
       <c r="N3" s="19"/>
@@ -1494,7 +1509,7 @@
       <c r="AC3" s="19"/>
       <c r="AD3" s="19"/>
     </row>
-    <row r="4" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -1504,14 +1519,14 @@
       <c r="G4" s="20"/>
       <c r="H4" s="20"/>
       <c r="I4" s="26"/>
-      <c r="K4" s="45"/>
+      <c r="K4" s="35"/>
       <c r="L4" s="19"/>
       <c r="M4" s="19"/>
       <c r="U4" s="19"/>
       <c r="V4" s="19"/>
       <c r="AA4" s="19"/>
     </row>
-    <row r="5" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -1521,14 +1536,14 @@
       <c r="G5" s="20"/>
       <c r="H5" s="20"/>
       <c r="I5" s="26"/>
-      <c r="K5" s="45"/>
+      <c r="K5" s="35"/>
       <c r="L5" s="19"/>
       <c r="M5" s="19"/>
       <c r="U5" s="19"/>
       <c r="V5" s="19"/>
       <c r="AA5" s="19"/>
     </row>
-    <row r="6" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -1538,14 +1553,14 @@
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
       <c r="I6" s="26"/>
-      <c r="K6" s="45"/>
+      <c r="K6" s="35"/>
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
       <c r="U6" s="19"/>
       <c r="V6" s="19"/>
       <c r="AA6" s="19"/>
     </row>
-    <row r="7" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -1555,14 +1570,14 @@
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
       <c r="I7" s="26"/>
-      <c r="K7" s="45"/>
+      <c r="K7" s="35"/>
       <c r="L7" s="19"/>
       <c r="M7" s="19"/>
       <c r="U7" s="19"/>
       <c r="V7" s="19"/>
       <c r="AA7" s="19"/>
     </row>
-    <row r="8" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -1572,14 +1587,14 @@
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
       <c r="I8" s="26"/>
-      <c r="K8" s="45"/>
+      <c r="K8" s="35"/>
       <c r="L8" s="19"/>
       <c r="M8" s="19"/>
       <c r="U8" s="19"/>
       <c r="V8" s="19"/>
       <c r="AA8" s="19"/>
     </row>
-    <row r="9" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -1589,14 +1604,14 @@
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
       <c r="I9" s="26"/>
-      <c r="K9" s="45"/>
+      <c r="K9" s="35"/>
       <c r="L9" s="19"/>
       <c r="M9" s="19"/>
       <c r="U9" s="19"/>
       <c r="V9" s="19"/>
       <c r="AA9" s="19"/>
     </row>
-    <row r="10" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -1606,14 +1621,14 @@
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
       <c r="I10" s="26"/>
-      <c r="K10" s="45"/>
+      <c r="K10" s="35"/>
       <c r="L10" s="19"/>
       <c r="M10" s="19"/>
       <c r="U10" s="19"/>
       <c r="V10" s="19"/>
       <c r="AA10" s="19"/>
     </row>
-    <row r="11" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -1623,14 +1638,14 @@
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
       <c r="I11" s="26"/>
-      <c r="K11" s="45"/>
+      <c r="K11" s="35"/>
       <c r="L11" s="19"/>
       <c r="M11" s="19"/>
       <c r="U11" s="19"/>
       <c r="V11" s="19"/>
       <c r="AA11" s="19"/>
     </row>
-    <row r="12" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -1640,14 +1655,14 @@
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
       <c r="I12" s="26"/>
-      <c r="K12" s="45"/>
+      <c r="K12" s="35"/>
       <c r="L12" s="19"/>
       <c r="M12" s="19"/>
       <c r="U12" s="19"/>
       <c r="V12" s="19"/>
       <c r="AA12" s="19"/>
     </row>
-    <row r="13" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -1657,14 +1672,14 @@
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
       <c r="I13" s="26"/>
-      <c r="K13" s="45"/>
+      <c r="K13" s="35"/>
       <c r="L13" s="19"/>
       <c r="M13" s="19"/>
       <c r="U13" s="19"/>
       <c r="V13" s="19"/>
       <c r="AA13" s="19"/>
     </row>
-    <row r="14" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -1674,14 +1689,14 @@
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
       <c r="I14" s="26"/>
-      <c r="K14" s="45"/>
+      <c r="K14" s="35"/>
       <c r="L14" s="19"/>
       <c r="M14" s="19"/>
       <c r="U14" s="19"/>
       <c r="V14" s="19"/>
       <c r="AA14" s="19"/>
     </row>
-    <row r="15" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -1691,14 +1706,14 @@
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
       <c r="I15" s="26"/>
-      <c r="K15" s="45"/>
+      <c r="K15" s="35"/>
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
       <c r="U15" s="19"/>
       <c r="V15" s="19"/>
       <c r="AA15" s="19"/>
     </row>
-    <row r="16" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -1708,7 +1723,7 @@
       <c r="G16" s="20"/>
       <c r="H16" s="20"/>
       <c r="I16" s="26"/>
-      <c r="K16" s="45"/>
+      <c r="K16" s="35"/>
       <c r="L16" s="19"/>
       <c r="M16" s="19"/>
       <c r="U16" s="19"/>
@@ -1725,7 +1740,7 @@
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
       <c r="I17" s="26"/>
-      <c r="K17" s="45"/>
+      <c r="K17" s="35"/>
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
       <c r="U17" s="19"/>
@@ -1742,7 +1757,7 @@
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
       <c r="I18" s="26"/>
-      <c r="K18" s="45"/>
+      <c r="K18" s="35"/>
       <c r="L18" s="19"/>
       <c r="M18" s="19"/>
       <c r="U18" s="19"/>
@@ -1759,7 +1774,7 @@
       <c r="G19" s="20"/>
       <c r="H19" s="20"/>
       <c r="I19" s="26"/>
-      <c r="K19" s="45"/>
+      <c r="K19" s="35"/>
       <c r="L19" s="19"/>
       <c r="M19" s="19"/>
       <c r="U19" s="19"/>
@@ -1776,7 +1791,7 @@
       <c r="G20" s="20"/>
       <c r="H20" s="20"/>
       <c r="I20" s="26"/>
-      <c r="K20" s="45"/>
+      <c r="K20" s="35"/>
       <c r="L20" s="19"/>
       <c r="M20" s="19"/>
       <c r="U20" s="19"/>
@@ -1793,7 +1808,7 @@
       <c r="G21" s="20"/>
       <c r="H21" s="20"/>
       <c r="I21" s="26"/>
-      <c r="K21" s="45"/>
+      <c r="K21" s="35"/>
       <c r="L21" s="19"/>
       <c r="M21" s="19"/>
       <c r="U21" s="19"/>
@@ -1810,7 +1825,7 @@
       <c r="G22" s="20"/>
       <c r="H22" s="20"/>
       <c r="I22" s="26"/>
-      <c r="K22" s="45"/>
+      <c r="K22" s="35"/>
       <c r="L22" s="19"/>
       <c r="M22" s="19"/>
       <c r="U22" s="19"/>
@@ -1827,7 +1842,7 @@
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
       <c r="I23" s="26"/>
-      <c r="K23" s="45"/>
+      <c r="K23" s="35"/>
       <c r="L23" s="19"/>
       <c r="M23" s="19"/>
       <c r="U23" s="19"/>
@@ -1844,7 +1859,7 @@
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
       <c r="I24" s="26"/>
-      <c r="K24" s="45"/>
+      <c r="K24" s="35"/>
       <c r="L24" s="19"/>
       <c r="M24" s="19"/>
       <c r="U24" s="19"/>
@@ -1861,7 +1876,7 @@
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
       <c r="I25" s="26"/>
-      <c r="K25" s="45"/>
+      <c r="K25" s="35"/>
       <c r="L25" s="19"/>
       <c r="M25" s="19"/>
       <c r="U25" s="19"/>
@@ -1878,7 +1893,7 @@
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
       <c r="I26" s="26"/>
-      <c r="K26" s="45"/>
+      <c r="K26" s="35"/>
       <c r="L26" s="19"/>
       <c r="M26" s="19"/>
       <c r="U26" s="19"/>
@@ -1895,7 +1910,7 @@
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
       <c r="I27" s="26"/>
-      <c r="K27" s="45"/>
+      <c r="K27" s="35"/>
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
       <c r="U27" s="19"/>
@@ -1912,7 +1927,7 @@
       <c r="G28" s="20"/>
       <c r="H28" s="20"/>
       <c r="I28" s="26"/>
-      <c r="K28" s="45"/>
+      <c r="K28" s="35"/>
       <c r="L28" s="19"/>
       <c r="M28" s="19"/>
       <c r="U28" s="19"/>
@@ -1929,7 +1944,7 @@
       <c r="G29" s="20"/>
       <c r="H29" s="20"/>
       <c r="I29" s="26"/>
-      <c r="K29" s="45"/>
+      <c r="K29" s="35"/>
       <c r="L29" s="19"/>
       <c r="M29" s="19"/>
       <c r="U29" s="19"/>
@@ -1946,7 +1961,7 @@
       <c r="G30" s="20"/>
       <c r="H30" s="20"/>
       <c r="I30" s="26"/>
-      <c r="K30" s="45"/>
+      <c r="K30" s="35"/>
       <c r="L30" s="19"/>
       <c r="M30" s="19"/>
       <c r="U30" s="19"/>
@@ -1963,7 +1978,7 @@
       <c r="G31" s="20"/>
       <c r="H31" s="20"/>
       <c r="I31" s="26"/>
-      <c r="K31" s="45"/>
+      <c r="K31" s="35"/>
       <c r="L31" s="19"/>
       <c r="M31" s="19"/>
       <c r="U31" s="19"/>
@@ -1980,7 +1995,7 @@
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
       <c r="I32" s="26"/>
-      <c r="K32" s="45"/>
+      <c r="K32" s="35"/>
       <c r="L32" s="19"/>
       <c r="M32" s="19"/>
       <c r="U32" s="19"/>
@@ -1997,7 +2012,7 @@
       <c r="G33" s="20"/>
       <c r="H33" s="20"/>
       <c r="I33" s="26"/>
-      <c r="K33" s="45"/>
+      <c r="K33" s="35"/>
       <c r="L33" s="19"/>
       <c r="M33" s="19"/>
       <c r="U33" s="19"/>
@@ -2014,7 +2029,7 @@
       <c r="G34" s="20"/>
       <c r="H34" s="20"/>
       <c r="I34" s="26"/>
-      <c r="K34" s="45"/>
+      <c r="K34" s="35"/>
       <c r="L34" s="19"/>
       <c r="M34" s="19"/>
       <c r="U34" s="19"/>
@@ -2031,7 +2046,7 @@
       <c r="G35" s="20"/>
       <c r="H35" s="20"/>
       <c r="I35" s="26"/>
-      <c r="K35" s="45"/>
+      <c r="K35" s="35"/>
       <c r="L35" s="19"/>
       <c r="M35" s="19"/>
       <c r="U35" s="19"/>
@@ -2048,7 +2063,7 @@
       <c r="G36" s="20"/>
       <c r="H36" s="20"/>
       <c r="I36" s="26"/>
-      <c r="K36" s="45"/>
+      <c r="K36" s="35"/>
       <c r="L36" s="19"/>
       <c r="M36" s="19"/>
       <c r="U36" s="19"/>
@@ -2906,13 +2921,13 @@
     <row r="90" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="J1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Q1:R1"/>
     <mergeCell ref="S1:T1"/>
-    <mergeCell ref="W1:X1"/>
   </mergeCells>
   <conditionalFormatting sqref="K2">
     <cfRule type="cellIs" priority="1" operator="lessThan">
@@ -3045,90 +3060,90 @@
       <c r="AV1" s="8"/>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="38" t="s">
+      <c r="D2" s="40"/>
+      <c r="E2" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="42"/>
+      <c r="G2" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="38" t="s">
+      <c r="H2" s="40"/>
+      <c r="I2" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="36" t="s">
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="38" t="s">
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="V2" s="39"/>
-      <c r="W2" s="36" t="s">
+      <c r="V2" s="42"/>
+      <c r="W2" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="38" t="s">
+      <c r="X2" s="40"/>
+      <c r="Y2" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="Z2" s="39"/>
-      <c r="AA2" s="36" t="s">
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="38" t="s">
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="AD2" s="39"/>
-      <c r="AE2" s="36" t="s">
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="38" t="s">
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="AH2" s="39"/>
-      <c r="AI2" s="36" t="s">
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="38" t="s">
+      <c r="AJ2" s="40"/>
+      <c r="AK2" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="36" t="s">
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="AN2" s="37"/>
-      <c r="AO2" s="38" t="s">
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="AP2" s="39"/>
-      <c r="AQ2" s="36" t="s">
+      <c r="AP2" s="42"/>
+      <c r="AQ2" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="AR2" s="37"/>
-      <c r="AS2" s="38" t="s">
+      <c r="AR2" s="40"/>
+      <c r="AS2" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="AT2" s="39"/>
-      <c r="AU2" s="36" t="s">
+      <c r="AT2" s="42"/>
+      <c r="AU2" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="AV2" s="37"/>
+      <c r="AV2" s="40"/>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -6887,57 +6902,57 @@
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="42" t="s">
+      <c r="I2" s="43"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="L2" s="43" t="s">
+      <c r="L2" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="M2" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="N2" s="43" t="s">
+      <c r="N2" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="42" t="s">
+      <c r="O2" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="P2" s="43" t="s">
+      <c r="P2" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="Q2" s="42" t="s">
+      <c r="Q2" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="R2" s="43" t="s">
+      <c r="R2" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="S2" s="42" t="s">
+      <c r="S2" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="T2" s="43" t="s">
+      <c r="T2" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="U2" s="42" t="s">
+      <c r="U2" s="45" t="s">
         <v>99</v>
       </c>
     </row>
@@ -8860,10 +8875,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="37"/>
+      <c r="D2" s="40"/>
       <c r="E2" s="32" t="s">
         <v>107</v>
       </c>

--- a/OperadoraNominas/bin/Debug/Archivos/timbrado_idn_s.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/timbrado_idn_s.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Generales" sheetId="2" r:id="rId1"/>
@@ -282,7 +282,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="109">
   <si>
     <t>No. Empleado</t>
   </si>
@@ -600,12 +600,6 @@
   </si>
   <si>
     <t>SUELDO</t>
-  </si>
-  <si>
-    <t>276/009</t>
-  </si>
-  <si>
-    <t>Reembolso infonavit</t>
   </si>
   <si>
     <t>+W72-X72</t>
@@ -955,7 +949,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -990,9 +984,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1007,16 +998,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1025,10 +1016,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1337,7 +1328,7 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AE90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1395,10 +1386,10 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="G1" s="37"/>
+      <c r="F1" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="36"/>
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1411,11 +1402,11 @@
       <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="32" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>10</v>
@@ -1423,39 +1414,39 @@
       <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="38" t="s">
+      <c r="P1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="37"/>
+      <c r="Q1" s="36"/>
       <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="38" t="s">
+      <c r="S1" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="37"/>
-      <c r="U1" s="38" t="s">
+      <c r="T1" s="36"/>
+      <c r="U1" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="37"/>
+      <c r="V1" s="36"/>
       <c r="W1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" s="38" t="s">
+      <c r="Y1" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="38" t="s">
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="38" t="s">
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="AD1" s="37"/>
+      <c r="AD1" s="36"/>
       <c r="AE1" s="1" t="s">
         <v>21</v>
       </c>
@@ -1470,7 +1461,7 @@
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
       <c r="I2" s="26"/>
-      <c r="K2" s="34"/>
+      <c r="K2" s="33"/>
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
       <c r="U2" s="19"/>
@@ -1488,7 +1479,7 @@
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
       <c r="J3" s="19"/>
-      <c r="K3" s="35"/>
+      <c r="K3" s="34"/>
       <c r="L3" s="19"/>
       <c r="M3" s="19"/>
       <c r="N3" s="19"/>
@@ -1519,7 +1510,7 @@
       <c r="G4" s="20"/>
       <c r="H4" s="20"/>
       <c r="I4" s="26"/>
-      <c r="K4" s="35"/>
+      <c r="K4" s="34"/>
       <c r="L4" s="19"/>
       <c r="M4" s="19"/>
       <c r="U4" s="19"/>
@@ -1536,7 +1527,7 @@
       <c r="G5" s="20"/>
       <c r="H5" s="20"/>
       <c r="I5" s="26"/>
-      <c r="K5" s="35"/>
+      <c r="K5" s="34"/>
       <c r="L5" s="19"/>
       <c r="M5" s="19"/>
       <c r="U5" s="19"/>
@@ -1553,7 +1544,7 @@
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
       <c r="I6" s="26"/>
-      <c r="K6" s="35"/>
+      <c r="K6" s="34"/>
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
       <c r="U6" s="19"/>
@@ -1570,7 +1561,7 @@
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
       <c r="I7" s="26"/>
-      <c r="K7" s="35"/>
+      <c r="K7" s="34"/>
       <c r="L7" s="19"/>
       <c r="M7" s="19"/>
       <c r="U7" s="19"/>
@@ -1587,7 +1578,7 @@
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
       <c r="I8" s="26"/>
-      <c r="K8" s="35"/>
+      <c r="K8" s="34"/>
       <c r="L8" s="19"/>
       <c r="M8" s="19"/>
       <c r="U8" s="19"/>
@@ -1604,7 +1595,7 @@
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
       <c r="I9" s="26"/>
-      <c r="K9" s="35"/>
+      <c r="K9" s="34"/>
       <c r="L9" s="19"/>
       <c r="M9" s="19"/>
       <c r="U9" s="19"/>
@@ -1621,7 +1612,7 @@
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
       <c r="I10" s="26"/>
-      <c r="K10" s="35"/>
+      <c r="K10" s="34"/>
       <c r="L10" s="19"/>
       <c r="M10" s="19"/>
       <c r="U10" s="19"/>
@@ -1638,7 +1629,7 @@
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
       <c r="I11" s="26"/>
-      <c r="K11" s="35"/>
+      <c r="K11" s="34"/>
       <c r="L11" s="19"/>
       <c r="M11" s="19"/>
       <c r="U11" s="19"/>
@@ -1655,7 +1646,7 @@
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
       <c r="I12" s="26"/>
-      <c r="K12" s="35"/>
+      <c r="K12" s="34"/>
       <c r="L12" s="19"/>
       <c r="M12" s="19"/>
       <c r="U12" s="19"/>
@@ -1672,7 +1663,7 @@
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
       <c r="I13" s="26"/>
-      <c r="K13" s="35"/>
+      <c r="K13" s="34"/>
       <c r="L13" s="19"/>
       <c r="M13" s="19"/>
       <c r="U13" s="19"/>
@@ -1689,7 +1680,7 @@
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
       <c r="I14" s="26"/>
-      <c r="K14" s="35"/>
+      <c r="K14" s="34"/>
       <c r="L14" s="19"/>
       <c r="M14" s="19"/>
       <c r="U14" s="19"/>
@@ -1706,7 +1697,7 @@
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
       <c r="I15" s="26"/>
-      <c r="K15" s="35"/>
+      <c r="K15" s="34"/>
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
       <c r="U15" s="19"/>
@@ -1723,7 +1714,7 @@
       <c r="G16" s="20"/>
       <c r="H16" s="20"/>
       <c r="I16" s="26"/>
-      <c r="K16" s="35"/>
+      <c r="K16" s="34"/>
       <c r="L16" s="19"/>
       <c r="M16" s="19"/>
       <c r="U16" s="19"/>
@@ -1740,7 +1731,7 @@
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
       <c r="I17" s="26"/>
-      <c r="K17" s="35"/>
+      <c r="K17" s="34"/>
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
       <c r="U17" s="19"/>
@@ -1757,7 +1748,7 @@
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
       <c r="I18" s="26"/>
-      <c r="K18" s="35"/>
+      <c r="K18" s="34"/>
       <c r="L18" s="19"/>
       <c r="M18" s="19"/>
       <c r="U18" s="19"/>
@@ -1774,7 +1765,7 @@
       <c r="G19" s="20"/>
       <c r="H19" s="20"/>
       <c r="I19" s="26"/>
-      <c r="K19" s="35"/>
+      <c r="K19" s="34"/>
       <c r="L19" s="19"/>
       <c r="M19" s="19"/>
       <c r="U19" s="19"/>
@@ -1791,7 +1782,7 @@
       <c r="G20" s="20"/>
       <c r="H20" s="20"/>
       <c r="I20" s="26"/>
-      <c r="K20" s="35"/>
+      <c r="K20" s="34"/>
       <c r="L20" s="19"/>
       <c r="M20" s="19"/>
       <c r="U20" s="19"/>
@@ -1808,7 +1799,7 @@
       <c r="G21" s="20"/>
       <c r="H21" s="20"/>
       <c r="I21" s="26"/>
-      <c r="K21" s="35"/>
+      <c r="K21" s="34"/>
       <c r="L21" s="19"/>
       <c r="M21" s="19"/>
       <c r="U21" s="19"/>
@@ -1825,7 +1816,7 @@
       <c r="G22" s="20"/>
       <c r="H22" s="20"/>
       <c r="I22" s="26"/>
-      <c r="K22" s="35"/>
+      <c r="K22" s="34"/>
       <c r="L22" s="19"/>
       <c r="M22" s="19"/>
       <c r="U22" s="19"/>
@@ -1842,7 +1833,7 @@
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
       <c r="I23" s="26"/>
-      <c r="K23" s="35"/>
+      <c r="K23" s="34"/>
       <c r="L23" s="19"/>
       <c r="M23" s="19"/>
       <c r="U23" s="19"/>
@@ -1859,7 +1850,7 @@
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
       <c r="I24" s="26"/>
-      <c r="K24" s="35"/>
+      <c r="K24" s="34"/>
       <c r="L24" s="19"/>
       <c r="M24" s="19"/>
       <c r="U24" s="19"/>
@@ -1876,7 +1867,7 @@
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
       <c r="I25" s="26"/>
-      <c r="K25" s="35"/>
+      <c r="K25" s="34"/>
       <c r="L25" s="19"/>
       <c r="M25" s="19"/>
       <c r="U25" s="19"/>
@@ -1893,7 +1884,7 @@
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
       <c r="I26" s="26"/>
-      <c r="K26" s="35"/>
+      <c r="K26" s="34"/>
       <c r="L26" s="19"/>
       <c r="M26" s="19"/>
       <c r="U26" s="19"/>
@@ -1910,7 +1901,7 @@
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
       <c r="I27" s="26"/>
-      <c r="K27" s="35"/>
+      <c r="K27" s="34"/>
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
       <c r="U27" s="19"/>
@@ -1927,7 +1918,7 @@
       <c r="G28" s="20"/>
       <c r="H28" s="20"/>
       <c r="I28" s="26"/>
-      <c r="K28" s="35"/>
+      <c r="K28" s="34"/>
       <c r="L28" s="19"/>
       <c r="M28" s="19"/>
       <c r="U28" s="19"/>
@@ -1944,7 +1935,7 @@
       <c r="G29" s="20"/>
       <c r="H29" s="20"/>
       <c r="I29" s="26"/>
-      <c r="K29" s="35"/>
+      <c r="K29" s="34"/>
       <c r="L29" s="19"/>
       <c r="M29" s="19"/>
       <c r="U29" s="19"/>
@@ -1961,7 +1952,7 @@
       <c r="G30" s="20"/>
       <c r="H30" s="20"/>
       <c r="I30" s="26"/>
-      <c r="K30" s="35"/>
+      <c r="K30" s="34"/>
       <c r="L30" s="19"/>
       <c r="M30" s="19"/>
       <c r="U30" s="19"/>
@@ -1978,7 +1969,7 @@
       <c r="G31" s="20"/>
       <c r="H31" s="20"/>
       <c r="I31" s="26"/>
-      <c r="K31" s="35"/>
+      <c r="K31" s="34"/>
       <c r="L31" s="19"/>
       <c r="M31" s="19"/>
       <c r="U31" s="19"/>
@@ -1995,7 +1986,7 @@
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
       <c r="I32" s="26"/>
-      <c r="K32" s="35"/>
+      <c r="K32" s="34"/>
       <c r="L32" s="19"/>
       <c r="M32" s="19"/>
       <c r="U32" s="19"/>
@@ -2012,7 +2003,7 @@
       <c r="G33" s="20"/>
       <c r="H33" s="20"/>
       <c r="I33" s="26"/>
-      <c r="K33" s="35"/>
+      <c r="K33" s="34"/>
       <c r="L33" s="19"/>
       <c r="M33" s="19"/>
       <c r="U33" s="19"/>
@@ -2029,7 +2020,7 @@
       <c r="G34" s="20"/>
       <c r="H34" s="20"/>
       <c r="I34" s="26"/>
-      <c r="K34" s="35"/>
+      <c r="K34" s="34"/>
       <c r="L34" s="19"/>
       <c r="M34" s="19"/>
       <c r="U34" s="19"/>
@@ -2046,7 +2037,7 @@
       <c r="G35" s="20"/>
       <c r="H35" s="20"/>
       <c r="I35" s="26"/>
-      <c r="K35" s="35"/>
+      <c r="K35" s="34"/>
       <c r="L35" s="19"/>
       <c r="M35" s="19"/>
       <c r="U35" s="19"/>
@@ -2063,7 +2054,7 @@
       <c r="G36" s="20"/>
       <c r="H36" s="20"/>
       <c r="I36" s="26"/>
-      <c r="K36" s="35"/>
+      <c r="K36" s="34"/>
       <c r="L36" s="19"/>
       <c r="M36" s="19"/>
       <c r="U36" s="19"/>
@@ -3060,90 +3051,90 @@
       <c r="AV1" s="8"/>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41" t="s">
+      <c r="D2" s="41"/>
+      <c r="E2" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="39" t="s">
+      <c r="F2" s="39"/>
+      <c r="G2" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="40"/>
-      <c r="I2" s="41" t="s">
+      <c r="H2" s="41"/>
+      <c r="I2" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="39" t="s">
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="41" t="s">
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="V2" s="42"/>
-      <c r="W2" s="39" t="s">
+      <c r="V2" s="39"/>
+      <c r="W2" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="41" t="s">
+      <c r="X2" s="41"/>
+      <c r="Y2" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="39" t="s">
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="41" t="s">
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="39" t="s">
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="AF2" s="40"/>
-      <c r="AG2" s="41" t="s">
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="AH2" s="42"/>
-      <c r="AI2" s="39" t="s">
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="AJ2" s="40"/>
-      <c r="AK2" s="41" t="s">
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="AL2" s="42"/>
-      <c r="AM2" s="39" t="s">
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="AN2" s="40"/>
-      <c r="AO2" s="41" t="s">
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="AP2" s="42"/>
-      <c r="AQ2" s="39" t="s">
+      <c r="AP2" s="39"/>
+      <c r="AQ2" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="AR2" s="40"/>
-      <c r="AS2" s="41" t="s">
+      <c r="AR2" s="41"/>
+      <c r="AS2" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="AT2" s="42"/>
-      <c r="AU2" s="39" t="s">
+      <c r="AT2" s="39"/>
+      <c r="AU2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="AV2" s="40"/>
+      <c r="AV2" s="41"/>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -6785,6 +6776,16 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="AO2:AP2"/>
     <mergeCell ref="AQ2:AR2"/>
     <mergeCell ref="AS2:AT2"/>
@@ -6794,16 +6795,6 @@
     <mergeCell ref="AI2:AJ2"/>
     <mergeCell ref="AK2:AL2"/>
     <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="O2:T2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <legacyDrawing r:id="rId1"/>
@@ -6905,51 +6896,51 @@
       <c r="C2" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="44" t="s">
         <v>84</v>
       </c>
       <c r="E2" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="44" t="s">
         <v>86</v>
       </c>
       <c r="G2" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="39"/>
       <c r="K2" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="L2" s="46" t="s">
+      <c r="L2" s="44" t="s">
         <v>90</v>
       </c>
       <c r="M2" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="N2" s="46" t="s">
+      <c r="N2" s="44" t="s">
         <v>92</v>
       </c>
       <c r="O2" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="P2" s="46" t="s">
+      <c r="P2" s="44" t="s">
         <v>94</v>
       </c>
       <c r="Q2" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="R2" s="46" t="s">
+      <c r="R2" s="44" t="s">
         <v>96</v>
       </c>
       <c r="S2" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="T2" s="46" t="s">
+      <c r="T2" s="44" t="s">
         <v>98</v>
       </c>
       <c r="U2" s="45" t="s">
@@ -8205,7 +8196,7 @@
       <c r="U72" s="20"/>
       <c r="W72" s="23"/>
       <c r="Y72" s="23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="73" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -8822,6 +8813,16 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C2"/>
+    <mergeCell ref="D2"/>
+    <mergeCell ref="E2"/>
+    <mergeCell ref="F2"/>
+    <mergeCell ref="G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2"/>
+    <mergeCell ref="L2"/>
+    <mergeCell ref="M2"/>
+    <mergeCell ref="N2"/>
     <mergeCell ref="T2"/>
     <mergeCell ref="U2"/>
     <mergeCell ref="O2"/>
@@ -8829,16 +8830,6 @@
     <mergeCell ref="Q2"/>
     <mergeCell ref="R2"/>
     <mergeCell ref="S2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2"/>
-    <mergeCell ref="L2"/>
-    <mergeCell ref="M2"/>
-    <mergeCell ref="N2"/>
-    <mergeCell ref="C2"/>
-    <mergeCell ref="D2"/>
-    <mergeCell ref="E2"/>
-    <mergeCell ref="F2"/>
-    <mergeCell ref="G2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <legacyDrawing r:id="rId1"/>
@@ -8848,13 +8839,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja4"/>
-  <dimension ref="A1:K107"/>
+  <dimension ref="A1:J107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C69" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E77" sqref="E77"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8862,28 +8853,21 @@
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="42.7109375" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C1" s="7" t="s">
         <v>101</v>
       </c>
       <c r="D1" s="8"/>
-      <c r="E1" s="15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C2" s="39" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C2" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="32" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D2" s="41"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -8894,842 +8878,735 @@
       <c r="D3" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
       <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="20"/>
       <c r="D5" s="20"/>
       <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
       <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
       <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
       <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
       <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
       <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
       <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
       <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
       <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
       <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
       <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
       <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
       <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20" s="19"/>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
       <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21" s="19"/>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
       <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="K21" s="18"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J21" s="18"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
       <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
       <c r="B23" s="19"/>
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
       <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
       <c r="B24" s="19"/>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
       <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
       <c r="B25" s="19"/>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
       <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
       <c r="B26" s="19"/>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
       <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
       <c r="B27" s="19"/>
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
       <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>
       <c r="B28" s="19"/>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
       <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="19"/>
       <c r="B29" s="19"/>
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
       <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="19"/>
       <c r="B30" s="19"/>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
       <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="19"/>
       <c r="B31" s="19"/>
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
       <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="19"/>
       <c r="B32" s="19"/>
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
       <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="19"/>
       <c r="B33" s="19"/>
       <c r="C33" s="20"/>
       <c r="D33" s="20"/>
       <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="19"/>
       <c r="B34" s="19"/>
       <c r="C34" s="20"/>
       <c r="D34" s="20"/>
       <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="19"/>
       <c r="B35" s="19"/>
       <c r="C35" s="20"/>
       <c r="D35" s="20"/>
       <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="19"/>
       <c r="B36" s="19"/>
       <c r="C36" s="20"/>
       <c r="D36" s="20"/>
       <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="19"/>
       <c r="B37" s="19"/>
       <c r="C37" s="20"/>
       <c r="D37" s="20"/>
       <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="19"/>
       <c r="B38" s="19"/>
       <c r="C38" s="20"/>
       <c r="D38" s="20"/>
       <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="19"/>
       <c r="B39" s="19"/>
       <c r="C39" s="20"/>
       <c r="D39" s="20"/>
       <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="19"/>
       <c r="B40" s="19"/>
       <c r="C40" s="20"/>
       <c r="D40" s="20"/>
       <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="19"/>
       <c r="B41" s="19"/>
       <c r="C41" s="20"/>
       <c r="D41" s="20"/>
       <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="19"/>
       <c r="B42" s="19"/>
       <c r="C42" s="20"/>
       <c r="D42" s="20"/>
       <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="19"/>
       <c r="B43" s="19"/>
       <c r="C43" s="20"/>
       <c r="D43" s="20"/>
       <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="19"/>
       <c r="B44" s="19"/>
       <c r="C44" s="20"/>
       <c r="D44" s="20"/>
       <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="19"/>
       <c r="B45" s="19"/>
       <c r="C45" s="20"/>
       <c r="D45" s="20"/>
       <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="19"/>
       <c r="B46" s="19"/>
       <c r="C46" s="20"/>
       <c r="D46" s="20"/>
       <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="19"/>
       <c r="B47" s="19"/>
       <c r="C47" s="20"/>
       <c r="D47" s="20"/>
       <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="19"/>
       <c r="B48" s="19"/>
       <c r="C48" s="20"/>
       <c r="D48" s="20"/>
       <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="19"/>
       <c r="B49" s="19"/>
       <c r="C49" s="20"/>
       <c r="D49" s="20"/>
       <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="19"/>
       <c r="B50" s="19"/>
       <c r="C50" s="20"/>
       <c r="D50" s="20"/>
       <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="19"/>
       <c r="B51" s="19"/>
       <c r="C51" s="20"/>
       <c r="D51" s="20"/>
       <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="19"/>
       <c r="B52" s="19"/>
       <c r="C52" s="20"/>
       <c r="D52" s="20"/>
       <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="19"/>
       <c r="B53" s="19"/>
       <c r="C53" s="20"/>
       <c r="D53" s="20"/>
       <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="19"/>
       <c r="B54" s="19"/>
       <c r="C54" s="20"/>
       <c r="D54" s="20"/>
       <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="19"/>
       <c r="B55" s="19"/>
       <c r="C55" s="20"/>
       <c r="D55" s="20"/>
       <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="19"/>
       <c r="B56" s="19"/>
       <c r="C56" s="20"/>
       <c r="D56" s="20"/>
       <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="19"/>
       <c r="B57" s="19"/>
       <c r="C57" s="20"/>
       <c r="D57" s="20"/>
       <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="19"/>
       <c r="B58" s="19"/>
       <c r="C58" s="20"/>
       <c r="D58" s="20"/>
       <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="19"/>
       <c r="B59" s="19"/>
       <c r="C59" s="20"/>
       <c r="D59" s="20"/>
       <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="19"/>
       <c r="B60" s="19"/>
       <c r="C60" s="20"/>
       <c r="D60" s="20"/>
       <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="19"/>
       <c r="B61" s="19"/>
       <c r="C61" s="20"/>
       <c r="D61" s="20"/>
       <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="19"/>
       <c r="B62" s="19"/>
       <c r="C62" s="20"/>
       <c r="D62" s="20"/>
       <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="19"/>
       <c r="B63" s="19"/>
       <c r="C63" s="20"/>
       <c r="D63" s="20"/>
       <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="19"/>
       <c r="B64" s="19"/>
       <c r="C64" s="20"/>
       <c r="D64" s="20"/>
       <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="19"/>
       <c r="B65" s="19"/>
       <c r="C65" s="20"/>
       <c r="D65" s="20"/>
       <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="19"/>
       <c r="B66" s="19"/>
       <c r="C66" s="20"/>
       <c r="D66" s="20"/>
       <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="19"/>
       <c r="B67" s="19"/>
       <c r="C67" s="20"/>
       <c r="D67" s="20"/>
       <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="19"/>
       <c r="B68" s="19"/>
       <c r="C68" s="20"/>
       <c r="D68" s="20"/>
       <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="19"/>
       <c r="B69" s="19"/>
       <c r="C69" s="20"/>
       <c r="D69" s="20"/>
       <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="19"/>
       <c r="B70" s="19"/>
       <c r="C70" s="20"/>
       <c r="D70" s="20"/>
       <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="19"/>
       <c r="B71" s="19"/>
       <c r="C71" s="20"/>
       <c r="D71" s="20"/>
       <c r="E71" s="18"/>
-      <c r="F71" s="18"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="19"/>
       <c r="B72" s="19"/>
       <c r="C72" s="20"/>
       <c r="D72" s="20"/>
       <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="19"/>
       <c r="B73" s="19"/>
       <c r="C73" s="20"/>
       <c r="D73" s="20"/>
       <c r="E73" s="18"/>
-      <c r="F73" s="18"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="19"/>
       <c r="B74" s="19"/>
       <c r="C74" s="20"/>
       <c r="D74" s="20"/>
       <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="19"/>
       <c r="B75" s="19"/>
       <c r="C75" s="20"/>
       <c r="D75" s="20"/>
       <c r="E75" s="18"/>
-      <c r="F75" s="18"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="19"/>
       <c r="B76" s="19"/>
       <c r="C76" s="20"/>
       <c r="D76" s="20"/>
       <c r="E76" s="18"/>
-      <c r="F76" s="18"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="19"/>
       <c r="B77" s="19"/>
       <c r="C77" s="20"/>
       <c r="D77" s="20"/>
       <c r="E77" s="18"/>
-      <c r="F77" s="18"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="19"/>
       <c r="B78" s="19"/>
       <c r="C78" s="20"/>
       <c r="D78" s="20"/>
       <c r="E78" s="18"/>
-      <c r="F78" s="18"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="19"/>
       <c r="B79" s="19"/>
       <c r="C79" s="20"/>
       <c r="D79" s="20"/>
       <c r="E79" s="18"/>
-      <c r="F79" s="18"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="19"/>
       <c r="B80" s="19"/>
       <c r="C80" s="20"/>
       <c r="D80" s="20"/>
       <c r="E80" s="18"/>
-      <c r="F80" s="18"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="19"/>
       <c r="B81" s="19"/>
       <c r="C81" s="20"/>
       <c r="D81" s="20"/>
       <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="19"/>
       <c r="B82" s="19"/>
       <c r="C82" s="20"/>
       <c r="D82" s="20"/>
       <c r="E82" s="18"/>
-      <c r="F82" s="18"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="19"/>
       <c r="B83" s="19"/>
       <c r="C83" s="20"/>
       <c r="D83" s="20"/>
       <c r="E83" s="18"/>
-      <c r="F83" s="18"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="19"/>
       <c r="B84" s="19"/>
       <c r="C84" s="20"/>
       <c r="D84" s="20"/>
       <c r="E84" s="18"/>
-      <c r="F84" s="18"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="19"/>
       <c r="B85" s="19"/>
       <c r="C85" s="20"/>
       <c r="D85" s="20"/>
       <c r="E85" s="18"/>
-      <c r="F85" s="18"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="19"/>
       <c r="B86" s="19"/>
       <c r="C86" s="20"/>
       <c r="D86" s="20"/>
       <c r="E86" s="18"/>
-      <c r="F86" s="18"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="19"/>
       <c r="B87" s="19"/>
       <c r="C87" s="20"/>
       <c r="D87" s="20"/>
       <c r="E87" s="18"/>
-      <c r="F87" s="18"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="19"/>
       <c r="B88" s="19"/>
       <c r="C88" s="20"/>
       <c r="D88" s="20"/>
       <c r="E88" s="18"/>
-      <c r="F88" s="18"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="19"/>
       <c r="B89" s="19"/>
       <c r="C89" s="20"/>
       <c r="D89" s="20"/>
       <c r="E89" s="18"/>
-      <c r="F89" s="18"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="19"/>
       <c r="B90" s="19"/>
       <c r="C90" s="20"/>
       <c r="D90" s="20"/>
       <c r="E90" s="18"/>
-      <c r="F90" s="18"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="19"/>
       <c r="B91" s="19"/>
       <c r="C91" s="20"/>
       <c r="D91" s="20"/>
       <c r="E91" s="18"/>
-      <c r="F91" s="18"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="27"/>
       <c r="B92" s="27"/>
       <c r="C92" s="16"/>
       <c r="D92" s="16"/>
       <c r="E92" s="18"/>
-      <c r="F92" s="18"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="27"/>
       <c r="B93" s="27"/>
       <c r="C93" s="16"/>
       <c r="D93" s="16"/>
       <c r="E93" s="18"/>
-      <c r="F93" s="18"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="27"/>
       <c r="B94" s="27"/>
       <c r="C94" s="16"/>
       <c r="D94" s="16"/>
       <c r="E94" s="18"/>
-      <c r="F94" s="18"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="27"/>
       <c r="B95" s="27"/>
       <c r="C95" s="16"/>
       <c r="D95" s="16"/>
       <c r="E95" s="18"/>
-      <c r="F95" s="18"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="19"/>
       <c r="B96" s="19"/>
       <c r="C96" s="20"/>
       <c r="D96" s="20"/>
       <c r="E96" s="18"/>
-      <c r="F96" s="18"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="19"/>
       <c r="B97" s="19"/>
       <c r="C97" s="20"/>
       <c r="D97" s="20"/>
       <c r="E97" s="18"/>
-      <c r="F97" s="18"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="19"/>
       <c r="B98" s="19"/>
       <c r="C98" s="20"/>
       <c r="D98" s="20"/>
       <c r="E98" s="18"/>
-      <c r="F98" s="18"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="19"/>
       <c r="B99" s="19"/>
       <c r="C99" s="20"/>
       <c r="D99" s="20"/>
       <c r="E99" s="18"/>
-      <c r="F99" s="18"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="19"/>
       <c r="B100" s="19"/>
       <c r="C100" s="20"/>
       <c r="D100" s="20"/>
       <c r="E100" s="18"/>
-      <c r="F100" s="18"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="19"/>
       <c r="B101" s="19"/>
       <c r="C101" s="20"/>
       <c r="D101" s="20"/>
       <c r="E101" s="18"/>
-      <c r="F101" s="18"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="19"/>
       <c r="B102" s="19"/>
       <c r="C102" s="20"/>
       <c r="D102" s="20"/>
       <c r="E102" s="18"/>
-      <c r="F102" s="18"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="19"/>
       <c r="B103" s="19"/>
       <c r="C103" s="20"/>
       <c r="D103" s="20"/>
       <c r="E103" s="18"/>
-      <c r="F103" s="18"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="19"/>
       <c r="B104" s="19"/>
       <c r="C104" s="20"/>
       <c r="D104" s="20"/>
       <c r="E104" s="18"/>
-      <c r="F104" s="18"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="19"/>
       <c r="B105" s="19"/>
       <c r="C105" s="20"/>
       <c r="D105" s="20"/>
       <c r="E105" s="18"/>
-      <c r="F105" s="18"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="19"/>
       <c r="B106" s="19"/>
       <c r="C106" s="20"/>
       <c r="D106" s="20"/>
       <c r="E106" s="18"/>
-      <c r="F106" s="18"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="18"/>
       <c r="B107" s="18"/>
       <c r="C107" s="18"/>
       <c r="D107" s="18"/>
       <c r="E107" s="18"/>
-      <c r="F107" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
